--- a/documents/schedule_subjects-grouped.xlsx
+++ b/documents/schedule_subjects-grouped.xlsx
@@ -1142,21 +1142,21 @@
       </c>
       <c r="T5" s="15" t="inlineStr">
         <is>
-          <t>fry</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="U5" s="15" t="inlineStr">
         <is>
-          <t>JT</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="V5" s="15" t="inlineStr">
         <is>
-          <t>5B 5gas_fry</t>
+          <t>3C 3hot</t>
         </is>
       </c>
       <c r="W5" s="16" t="n">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="X5" s="15" t="inlineStr">
         <is>
@@ -1248,21 +1248,21 @@
       </c>
       <c r="T6" s="15" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>fry</t>
         </is>
       </c>
       <c r="U6" s="15" t="inlineStr">
         <is>
-          <t>KY</t>
+          <t>JT</t>
         </is>
       </c>
       <c r="V6" s="15" t="inlineStr">
         <is>
-          <t>3C 3hot</t>
+          <t>5B 5gas_fry</t>
         </is>
       </c>
       <c r="W6" s="16" t="n">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c r="X6" s="15" t="inlineStr">
         <is>
@@ -1375,67 +1375,67 @@
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
+          <t>j2</t>
+        </is>
+      </c>
+      <c r="F8" s="17" t="inlineStr">
+        <is>
+          <t>PJ</t>
+        </is>
+      </c>
+      <c r="G8" s="17" t="inlineStr">
+        <is>
+          <t>1d 1wz</t>
+        </is>
+      </c>
+      <c r="H8" s="18" t="n">
+        <v>210</v>
+      </c>
+      <c r="I8" s="17" t="inlineStr">
+        <is>
+          <t>ang</t>
+        </is>
+      </c>
+      <c r="J8" s="17" t="inlineStr">
+        <is>
+          <t>gas</t>
+        </is>
+      </c>
+      <c r="K8" s="17" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="L8" s="17" t="inlineStr">
+        <is>
+          <t>4B 4gas_fry</t>
+        </is>
+      </c>
+      <c r="M8" s="18" t="n">
+        <v>207</v>
+      </c>
+      <c r="N8" s="17" t="inlineStr">
+        <is>
+          <t>ang</t>
+        </is>
+      </c>
+      <c r="O8" s="17" t="inlineStr">
+        <is>
           <t>hot</t>
         </is>
       </c>
-      <c r="F8" s="17" t="inlineStr">
-        <is>
-          <t>KY</t>
-        </is>
-      </c>
-      <c r="G8" s="17" t="inlineStr">
-        <is>
-          <t>3C 3hot</t>
-        </is>
-      </c>
-      <c r="H8" s="18" t="n">
-        <v>207</v>
-      </c>
-      <c r="I8" s="17" t="inlineStr">
-        <is>
-          <t>ang</t>
-        </is>
-      </c>
-      <c r="J8" s="17" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
-      <c r="K8" s="17" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="L8" s="17" t="inlineStr">
-        <is>
-          <t>5A 5ek_log</t>
-        </is>
-      </c>
-      <c r="M8" s="18" t="n">
-        <v>210</v>
-      </c>
-      <c r="N8" s="17" t="inlineStr">
-        <is>
-          <t>ang</t>
-        </is>
-      </c>
-      <c r="O8" s="17" t="inlineStr">
-        <is>
-          <t>ra</t>
-        </is>
-      </c>
       <c r="P8" s="17" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>JT</t>
         </is>
       </c>
       <c r="Q8" s="17" t="inlineStr">
         <is>
-          <t>4A 4ra_log</t>
+          <t>2C 2hot</t>
         </is>
       </c>
       <c r="R8" s="18" t="n">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="S8" s="17" t="inlineStr">
         <is>
@@ -1467,21 +1467,21 @@
       </c>
       <c r="Y8" s="17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>j2</t>
         </is>
       </c>
       <c r="Z8" s="17" t="inlineStr">
         <is>
-          <t>KY</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="AA8" s="17" t="inlineStr">
         <is>
-          <t>3S 3sport</t>
+          <t>2B 2gas</t>
         </is>
       </c>
       <c r="AB8" s="18" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" ht="14.3" customHeight="1">
@@ -1499,67 +1499,67 @@
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>j2</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="F9" s="17" t="inlineStr">
         <is>
-          <t>PJ</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="G9" s="17" t="inlineStr">
         <is>
-          <t>1d 1wz</t>
+          <t>3C 3hot</t>
         </is>
       </c>
       <c r="H9" s="18" t="n">
+        <v>207</v>
+      </c>
+      <c r="I9" s="17" t="inlineStr">
+        <is>
+          <t>ang</t>
+        </is>
+      </c>
+      <c r="J9" s="17" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="K9" s="17" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="L9" s="17" t="inlineStr">
+        <is>
+          <t>5A 5ek_log</t>
+        </is>
+      </c>
+      <c r="M9" s="18" t="n">
         <v>210</v>
       </c>
-      <c r="I9" s="17" t="inlineStr">
+      <c r="N9" s="17" t="inlineStr">
         <is>
           <t>ang</t>
         </is>
       </c>
-      <c r="J9" s="17" t="inlineStr">
-        <is>
-          <t>gas</t>
-        </is>
-      </c>
-      <c r="K9" s="17" t="inlineStr">
-        <is>
-          <t>KY</t>
-        </is>
-      </c>
-      <c r="L9" s="17" t="inlineStr">
-        <is>
-          <t>4B 4gas_fry</t>
-        </is>
-      </c>
-      <c r="M9" s="18" t="n">
-        <v>207</v>
-      </c>
-      <c r="N9" s="17" t="inlineStr">
-        <is>
-          <t>ang</t>
-        </is>
-      </c>
       <c r="O9" s="17" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>ra</t>
         </is>
       </c>
       <c r="P9" s="17" t="inlineStr">
         <is>
-          <t>JT</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="Q9" s="17" t="inlineStr">
         <is>
-          <t>2C 2hot</t>
+          <t>4A 4ra_log</t>
         </is>
       </c>
       <c r="R9" s="18" t="n">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="S9" s="17" t="inlineStr">
         <is>
@@ -1591,21 +1591,21 @@
       </c>
       <c r="Y9" s="17" t="inlineStr">
         <is>
-          <t>j2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Z9" s="17" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="AA9" s="17" t="inlineStr">
         <is>
-          <t>2B 2gas</t>
+          <t>3S 3sport</t>
         </is>
       </c>
       <c r="AB9" s="18" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" ht="14.3" customHeight="1">
@@ -1731,90 +1731,90 @@
       </c>
       <c r="E11" s="15" t="inlineStr">
         <is>
+          <t>j1</t>
+        </is>
+      </c>
+      <c r="F11" s="15" t="inlineStr">
+        <is>
+          <t>PJ</t>
+        </is>
+      </c>
+      <c r="G11" s="15" t="inlineStr">
+        <is>
+          <t>1d 1wz</t>
+        </is>
+      </c>
+      <c r="H11" s="16" t="n">
+        <v>210</v>
+      </c>
+      <c r="I11" s="15" t="inlineStr">
+        <is>
+          <t>ang</t>
+        </is>
+      </c>
+      <c r="J11" s="15" t="inlineStr">
+        <is>
+          <t>gas</t>
+        </is>
+      </c>
+      <c r="K11" s="15" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="L11" s="15" t="inlineStr">
+        <is>
+          <t>4B 4gas_fry</t>
+        </is>
+      </c>
+      <c r="M11" s="16" t="n">
+        <v>207</v>
+      </c>
+      <c r="N11" s="15" t="inlineStr">
+        <is>
+          <t>ang</t>
+        </is>
+      </c>
+      <c r="O11" s="15" t="inlineStr">
+        <is>
+          <t>j1</t>
+        </is>
+      </c>
+      <c r="P11" s="15" t="inlineStr">
+        <is>
+          <t>PJ</t>
+        </is>
+      </c>
+      <c r="Q11" s="15" t="inlineStr">
+        <is>
+          <t>1d 1wz</t>
+        </is>
+      </c>
+      <c r="R11" s="16" t="n">
+        <v>116</v>
+      </c>
+      <c r="S11" s="15" t="inlineStr">
+        <is>
+          <t>ang</t>
+        </is>
+      </c>
+      <c r="T11" s="15" t="inlineStr">
+        <is>
           <t>hot</t>
         </is>
       </c>
-      <c r="F11" s="15" t="inlineStr">
-        <is>
-          <t>KY</t>
-        </is>
-      </c>
-      <c r="G11" s="15" t="inlineStr">
-        <is>
-          <t>3C 3hot</t>
-        </is>
-      </c>
-      <c r="H11" s="16" t="n">
-        <v>207</v>
-      </c>
-      <c r="I11" s="15" t="inlineStr">
-        <is>
-          <t>ang</t>
-        </is>
-      </c>
-      <c r="J11" s="15" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
-      <c r="K11" s="15" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="L11" s="15" t="inlineStr">
-        <is>
-          <t>5A 5ek_log</t>
-        </is>
-      </c>
-      <c r="M11" s="16" t="n">
-        <v>210</v>
-      </c>
-      <c r="N11" s="15" t="inlineStr">
-        <is>
-          <t>ang</t>
-        </is>
-      </c>
-      <c r="O11" s="15" t="inlineStr">
-        <is>
-          <t>fry</t>
-        </is>
-      </c>
-      <c r="P11" s="15" t="inlineStr">
-        <is>
-          <t>KY</t>
-        </is>
-      </c>
-      <c r="Q11" s="15" t="inlineStr">
-        <is>
-          <t>2A 2ek_fry</t>
-        </is>
-      </c>
-      <c r="R11" s="16" t="n">
-        <v>207</v>
-      </c>
-      <c r="S11" s="15" t="inlineStr">
-        <is>
-          <t>ang</t>
-        </is>
-      </c>
-      <c r="T11" s="15" t="inlineStr">
-        <is>
-          <t>gas</t>
-        </is>
-      </c>
       <c r="U11" s="15" t="inlineStr">
         <is>
-          <t>KY</t>
+          <t>JT</t>
         </is>
       </c>
       <c r="V11" s="15" t="inlineStr">
         <is>
-          <t>4B 4gas_fry</t>
+          <t>2C 2hot</t>
         </is>
       </c>
       <c r="W11" s="16" t="n">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c r="X11" s="15" t="inlineStr">
         <is>
@@ -1855,90 +1855,90 @@
       </c>
       <c r="E12" s="15" t="inlineStr">
         <is>
-          <t>j1</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="F12" s="15" t="inlineStr">
         <is>
-          <t>PJ</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="G12" s="15" t="inlineStr">
         <is>
-          <t>1d 1wz</t>
+          <t>3C 3hot</t>
         </is>
       </c>
       <c r="H12" s="16" t="n">
+        <v>207</v>
+      </c>
+      <c r="I12" s="15" t="inlineStr">
+        <is>
+          <t>ang</t>
+        </is>
+      </c>
+      <c r="J12" s="15" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="K12" s="15" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="L12" s="15" t="inlineStr">
+        <is>
+          <t>5A 5ek_log</t>
+        </is>
+      </c>
+      <c r="M12" s="16" t="n">
         <v>210</v>
       </c>
-      <c r="I12" s="15" t="inlineStr">
+      <c r="N12" s="15" t="inlineStr">
         <is>
           <t>ang</t>
         </is>
       </c>
-      <c r="J12" s="15" t="inlineStr">
+      <c r="O12" s="15" t="inlineStr">
+        <is>
+          <t>fry</t>
+        </is>
+      </c>
+      <c r="P12" s="15" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="Q12" s="15" t="inlineStr">
+        <is>
+          <t>2A 2ek_fry</t>
+        </is>
+      </c>
+      <c r="R12" s="16" t="n">
+        <v>207</v>
+      </c>
+      <c r="S12" s="15" t="inlineStr">
+        <is>
+          <t>ang</t>
+        </is>
+      </c>
+      <c r="T12" s="15" t="inlineStr">
         <is>
           <t>gas</t>
         </is>
       </c>
-      <c r="K12" s="15" t="inlineStr">
+      <c r="U12" s="15" t="inlineStr">
         <is>
           <t>KY</t>
         </is>
       </c>
-      <c r="L12" s="15" t="inlineStr">
+      <c r="V12" s="15" t="inlineStr">
         <is>
           <t>4B 4gas_fry</t>
         </is>
       </c>
-      <c r="M12" s="16" t="n">
+      <c r="W12" s="16" t="n">
         <v>207</v>
-      </c>
-      <c r="N12" s="15" t="inlineStr">
-        <is>
-          <t>ang</t>
-        </is>
-      </c>
-      <c r="O12" s="15" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
-      <c r="P12" s="15" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="Q12" s="15" t="inlineStr">
-        <is>
-          <t>4A 4ra_log</t>
-        </is>
-      </c>
-      <c r="R12" s="16" t="n">
-        <v>210</v>
-      </c>
-      <c r="S12" s="15" t="inlineStr">
-        <is>
-          <t>ang</t>
-        </is>
-      </c>
-      <c r="T12" s="15" t="inlineStr">
-        <is>
-          <t>hot</t>
-        </is>
-      </c>
-      <c r="U12" s="15" t="inlineStr">
-        <is>
-          <t>JT</t>
-        </is>
-      </c>
-      <c r="V12" s="15" t="inlineStr">
-        <is>
-          <t>2C 2hot</t>
-        </is>
-      </c>
-      <c r="W12" s="16" t="n">
-        <v>115</v>
       </c>
       <c r="X12" s="15" t="inlineStr">
         <is>
@@ -2007,21 +2007,21 @@
       </c>
       <c r="O13" s="15" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>log</t>
         </is>
       </c>
       <c r="P13" s="15" t="inlineStr">
         <is>
-          <t>JT</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="Q13" s="15" t="inlineStr">
         <is>
-          <t>5B 5gas_fry</t>
+          <t>4A 4ra_log</t>
         </is>
       </c>
       <c r="R13" s="16" t="n">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="S13" s="15" t="inlineStr">
         <is>
@@ -2097,21 +2097,21 @@
       </c>
       <c r="O14" s="15" t="inlineStr">
         <is>
-          <t>j1</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="P14" s="15" t="inlineStr">
         <is>
-          <t>PJ</t>
+          <t>JT</t>
         </is>
       </c>
       <c r="Q14" s="15" t="inlineStr">
         <is>
-          <t>1d 1wz</t>
+          <t>5B 5gas_fry</t>
         </is>
       </c>
       <c r="R14" s="16" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S14" s="15" t="inlineStr">
         <is>
@@ -2205,67 +2205,67 @@
       </c>
       <c r="O15" s="17" t="inlineStr">
         <is>
-          <t>ek</t>
+          <t>j2</t>
         </is>
       </c>
       <c r="P15" s="17" t="inlineStr">
         <is>
+          <t>PJ</t>
+        </is>
+      </c>
+      <c r="Q15" s="17" t="inlineStr">
+        <is>
+          <t>1d 1wz</t>
+        </is>
+      </c>
+      <c r="R15" s="18" t="n">
+        <v>116</v>
+      </c>
+      <c r="S15" s="17" t="inlineStr">
+        <is>
+          <t>ang</t>
+        </is>
+      </c>
+      <c r="T15" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U15" s="17" t="inlineStr">
+        <is>
           <t>KY</t>
         </is>
       </c>
-      <c r="Q15" s="17" t="inlineStr">
-        <is>
-          <t>2A 2ek_fry</t>
-        </is>
-      </c>
-      <c r="R15" s="18" t="n">
-        <v>207</v>
-      </c>
-      <c r="S15" s="17" t="inlineStr">
+      <c r="V15" s="17" t="inlineStr">
+        <is>
+          <t>3JL</t>
+        </is>
+      </c>
+      <c r="W15" s="18" t="n">
+        <v>102</v>
+      </c>
+      <c r="X15" s="17" t="inlineStr">
         <is>
           <t>ang</t>
         </is>
       </c>
-      <c r="T15" s="17" t="inlineStr">
+      <c r="Y15" s="17" t="inlineStr">
         <is>
           <t>j2</t>
         </is>
       </c>
-      <c r="U15" s="17" t="inlineStr">
-        <is>
-          <t>JT</t>
-        </is>
-      </c>
-      <c r="V15" s="17" t="inlineStr">
-        <is>
-          <t>3d 3wz</t>
-        </is>
-      </c>
-      <c r="W15" s="18" t="n">
-        <v>115</v>
-      </c>
-      <c r="X15" s="17" t="inlineStr">
-        <is>
-          <t>ang</t>
-        </is>
-      </c>
-      <c r="Y15" s="17" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
       <c r="Z15" s="17" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PJ</t>
         </is>
       </c>
       <c r="AA15" s="17" t="inlineStr">
         <is>
-          <t>5A 5ek_log</t>
+          <t>2d 2wz</t>
         </is>
       </c>
       <c r="AB15" s="18" t="n">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" ht="14.3" customHeight="1">
@@ -2329,67 +2329,67 @@
       </c>
       <c r="O16" s="17" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>ek</t>
         </is>
       </c>
       <c r="P16" s="17" t="inlineStr">
         <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="Q16" s="17" t="inlineStr">
+        <is>
+          <t>2A 2ek_fry</t>
+        </is>
+      </c>
+      <c r="R16" s="18" t="n">
+        <v>207</v>
+      </c>
+      <c r="S16" s="17" t="inlineStr">
+        <is>
+          <t>ang</t>
+        </is>
+      </c>
+      <c r="T16" s="17" t="inlineStr">
+        <is>
+          <t>j2</t>
+        </is>
+      </c>
+      <c r="U16" s="17" t="inlineStr">
+        <is>
           <t>JT</t>
         </is>
       </c>
-      <c r="Q16" s="17" t="inlineStr">
-        <is>
-          <t>5B 5gas_fry</t>
-        </is>
-      </c>
-      <c r="R16" s="18" t="n">
+      <c r="V16" s="17" t="inlineStr">
+        <is>
+          <t>3d 3wz</t>
+        </is>
+      </c>
+      <c r="W16" s="18" t="n">
         <v>115</v>
       </c>
-      <c r="S16" s="17" t="inlineStr">
+      <c r="X16" s="17" t="inlineStr">
         <is>
           <t>ang</t>
         </is>
       </c>
-      <c r="T16" s="17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U16" s="17" t="inlineStr">
-        <is>
-          <t>KY</t>
-        </is>
-      </c>
-      <c r="V16" s="17" t="inlineStr">
-        <is>
-          <t>3JL</t>
-        </is>
-      </c>
-      <c r="W16" s="18" t="n">
-        <v>102</v>
-      </c>
-      <c r="X16" s="17" t="inlineStr">
-        <is>
-          <t>ang</t>
-        </is>
-      </c>
       <c r="Y16" s="17" t="inlineStr">
         <is>
-          <t>j2</t>
+          <t>log</t>
         </is>
       </c>
       <c r="Z16" s="17" t="inlineStr">
         <is>
-          <t>PJ</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="AA16" s="17" t="inlineStr">
         <is>
-          <t>2d 2wz</t>
+          <t>5A 5ek_log</t>
         </is>
       </c>
       <c r="AB16" s="18" t="n">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" ht="14.3" customHeight="1">
@@ -2445,18 +2445,16 @@
       </c>
       <c r="U17" s="17" t="inlineStr">
         <is>
-          <t>PJ</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="V17" s="17" t="inlineStr">
         <is>
-          <t>4A 4ra_log</t>
-        </is>
-      </c>
-      <c r="W17" s="18" t="inlineStr">
-        <is>
-          <t>_02</t>
-        </is>
+          <t>3L 3log</t>
+        </is>
+      </c>
+      <c r="W17" s="18" t="n">
+        <v>210</v>
       </c>
       <c r="X17" s="17" t="inlineStr"/>
       <c r="Y17" s="17" t="inlineStr"/>
@@ -2489,44 +2487,46 @@
       </c>
       <c r="O18" s="17" t="inlineStr">
         <is>
-          <t>j2</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="P18" s="17" t="inlineStr">
         <is>
+          <t>JT</t>
+        </is>
+      </c>
+      <c r="Q18" s="17" t="inlineStr">
+        <is>
+          <t>5B 5gas_fry</t>
+        </is>
+      </c>
+      <c r="R18" s="18" t="n">
+        <v>115</v>
+      </c>
+      <c r="S18" s="17" t="inlineStr">
+        <is>
+          <t>ang-log</t>
+        </is>
+      </c>
+      <c r="T18" s="17" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="U18" s="17" t="inlineStr">
+        <is>
           <t>PJ</t>
         </is>
       </c>
-      <c r="Q18" s="17" t="inlineStr">
-        <is>
-          <t>1d 1wz</t>
-        </is>
-      </c>
-      <c r="R18" s="18" t="n">
-        <v>116</v>
-      </c>
-      <c r="S18" s="17" t="inlineStr">
-        <is>
-          <t>ang-log</t>
-        </is>
-      </c>
-      <c r="T18" s="17" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
-      <c r="U18" s="17" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
       <c r="V18" s="17" t="inlineStr">
         <is>
-          <t>3L 3log</t>
-        </is>
-      </c>
-      <c r="W18" s="18" t="n">
-        <v>210</v>
+          <t>4A 4ra_log</t>
+        </is>
+      </c>
+      <c r="W18" s="18" t="inlineStr">
+        <is>
+          <t>_02</t>
+        </is>
       </c>
       <c r="X18" s="17" t="inlineStr"/>
       <c r="Y18" s="17" t="inlineStr"/>
@@ -2574,21 +2574,21 @@
       </c>
       <c r="J19" s="15" t="inlineStr">
         <is>
-          <t>ek</t>
+          <t>log</t>
         </is>
       </c>
       <c r="K19" s="15" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>JT</t>
         </is>
       </c>
       <c r="L19" s="15" t="inlineStr">
         <is>
-          <t>5A 5ek_log</t>
+          <t>1B 1gas_log</t>
         </is>
       </c>
       <c r="M19" s="16" t="n">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="N19" s="15" t="inlineStr">
         <is>
@@ -2620,44 +2620,46 @@
       </c>
       <c r="T19" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>j1</t>
         </is>
       </c>
       <c r="U19" s="15" t="inlineStr">
         <is>
-          <t>KY</t>
+          <t>PJ</t>
         </is>
       </c>
       <c r="V19" s="15" t="inlineStr">
         <is>
-          <t>3S 3sport</t>
-        </is>
-      </c>
-      <c r="W19" s="16" t="n">
+          <t>2d 2wz</t>
+        </is>
+      </c>
+      <c r="W19" s="16" t="inlineStr">
+        <is>
+          <t>_02</t>
+        </is>
+      </c>
+      <c r="X19" s="15" t="inlineStr">
+        <is>
+          <t>ang</t>
+        </is>
+      </c>
+      <c r="Y19" s="15" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="Z19" s="15" t="inlineStr">
+        <is>
+          <t>JT</t>
+        </is>
+      </c>
+      <c r="AA19" s="15" t="inlineStr">
+        <is>
+          <t>1B 1gas_log</t>
+        </is>
+      </c>
+      <c r="AB19" s="16" t="n">
         <v>207</v>
-      </c>
-      <c r="X19" s="15" t="inlineStr">
-        <is>
-          <t>ang</t>
-        </is>
-      </c>
-      <c r="Y19" s="15" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
-      <c r="Z19" s="15" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="AA19" s="15" t="inlineStr">
-        <is>
-          <t>5A 5ek_log</t>
-        </is>
-      </c>
-      <c r="AB19" s="16" t="n">
-        <v>210</v>
       </c>
     </row>
     <row r="20" ht="14.3" customHeight="1">
@@ -2698,21 +2700,21 @@
       </c>
       <c r="J20" s="15" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>fry</t>
         </is>
       </c>
       <c r="K20" s="15" t="inlineStr">
         <is>
-          <t>JT</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="L20" s="15" t="inlineStr">
         <is>
-          <t>1B 1gas_log</t>
+          <t>4B 4gas_fry</t>
         </is>
       </c>
       <c r="M20" s="16" t="n">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="N20" s="15" t="inlineStr">
         <is>
@@ -2744,44 +2746,44 @@
       </c>
       <c r="T20" s="15" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U20" s="15" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="V20" s="15" t="inlineStr">
+        <is>
+          <t>3S 3sport</t>
+        </is>
+      </c>
+      <c r="W20" s="16" t="n">
+        <v>207</v>
+      </c>
+      <c r="X20" s="15" t="inlineStr">
+        <is>
+          <t>ang</t>
+        </is>
+      </c>
+      <c r="Y20" s="15" t="inlineStr">
+        <is>
           <t>log</t>
         </is>
       </c>
-      <c r="U20" s="15" t="inlineStr">
+      <c r="Z20" s="15" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="V20" s="15" t="inlineStr">
-        <is>
-          <t>4A 4ra_log</t>
-        </is>
-      </c>
-      <c r="W20" s="16" t="n">
+      <c r="AA20" s="15" t="inlineStr">
+        <is>
+          <t>5A 5ek_log</t>
+        </is>
+      </c>
+      <c r="AB20" s="16" t="n">
         <v>210</v>
-      </c>
-      <c r="X20" s="15" t="inlineStr">
-        <is>
-          <t>ang</t>
-        </is>
-      </c>
-      <c r="Y20" s="15" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
-      <c r="Z20" s="15" t="inlineStr">
-        <is>
-          <t>JT</t>
-        </is>
-      </c>
-      <c r="AA20" s="15" t="inlineStr">
-        <is>
-          <t>1B 1gas_log</t>
-        </is>
-      </c>
-      <c r="AB20" s="16" t="n">
-        <v>207</v>
       </c>
     </row>
     <row r="21" ht="14.3" customHeight="1">
@@ -2804,21 +2806,21 @@
       </c>
       <c r="J21" s="15" t="inlineStr">
         <is>
-          <t>fry</t>
+          <t>ek</t>
         </is>
       </c>
       <c r="K21" s="15" t="inlineStr">
         <is>
-          <t>KY</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="L21" s="15" t="inlineStr">
         <is>
-          <t>4B 4gas_fry</t>
+          <t>5A 5ek_log</t>
         </is>
       </c>
       <c r="M21" s="16" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="N21" s="15" t="inlineStr">
         <is>
@@ -2855,18 +2857,16 @@
       </c>
       <c r="U21" s="15" t="inlineStr">
         <is>
-          <t>PJ</t>
+          <t>JT</t>
         </is>
       </c>
       <c r="V21" s="15" t="inlineStr">
         <is>
-          <t>2d 2wz</t>
-        </is>
-      </c>
-      <c r="W21" s="16" t="inlineStr">
-        <is>
-          <t>_02</t>
-        </is>
+          <t>3d 3wz</t>
+        </is>
+      </c>
+      <c r="W21" s="16" t="n">
+        <v>115</v>
       </c>
       <c r="X21" s="15" t="inlineStr">
         <is>
@@ -2940,21 +2940,21 @@
       </c>
       <c r="T22" s="15" t="inlineStr">
         <is>
-          <t>j1</t>
+          <t>log</t>
         </is>
       </c>
       <c r="U22" s="15" t="inlineStr">
         <is>
-          <t>JT</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="V22" s="15" t="inlineStr">
         <is>
-          <t>3d 3wz</t>
+          <t>4A 4ra_log</t>
         </is>
       </c>
       <c r="W22" s="16" t="n">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="X22" s="15" t="inlineStr">
         <is>
@@ -2997,21 +2997,21 @@
       </c>
       <c r="E23" s="17" t="inlineStr">
         <is>
-          <t>ek</t>
+          <t>j2</t>
         </is>
       </c>
       <c r="F23" s="17" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>JT</t>
         </is>
       </c>
       <c r="G23" s="17" t="inlineStr">
         <is>
-          <t>5A 5ek_log</t>
+          <t>3B 3gas</t>
         </is>
       </c>
       <c r="H23" s="18" t="n">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="I23" s="17" t="inlineStr">
         <is>
@@ -3020,21 +3020,21 @@
       </c>
       <c r="J23" s="17" t="inlineStr">
         <is>
-          <t>ek</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="K23" s="17" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>JT</t>
         </is>
       </c>
       <c r="L23" s="17" t="inlineStr">
         <is>
-          <t>5A 5ek_log</t>
+          <t>1B 1gas_log</t>
         </is>
       </c>
       <c r="M23" s="18" t="n">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="N23" s="17" t="inlineStr">
         <is>
@@ -3121,21 +3121,21 @@
       </c>
       <c r="E24" s="17" t="inlineStr">
         <is>
-          <t>j2</t>
+          <t>fry</t>
         </is>
       </c>
       <c r="F24" s="17" t="inlineStr">
         <is>
-          <t>JT</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="G24" s="17" t="inlineStr">
         <is>
-          <t>3B 3gas</t>
+          <t>4B 4gas_fry</t>
         </is>
       </c>
       <c r="H24" s="18" t="n">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="I24" s="17" t="inlineStr">
         <is>
@@ -3144,21 +3144,21 @@
       </c>
       <c r="J24" s="17" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>fry</t>
         </is>
       </c>
       <c r="K24" s="17" t="inlineStr">
         <is>
-          <t>JT</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="L24" s="17" t="inlineStr">
         <is>
-          <t>1B 1gas_log</t>
+          <t>4B 4gas_fry</t>
         </is>
       </c>
       <c r="M24" s="18" t="n">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="N24" s="17" t="inlineStr"/>
       <c r="O24" s="17" t="inlineStr"/>
@@ -3227,21 +3227,21 @@
       </c>
       <c r="E25" s="17" t="inlineStr">
         <is>
-          <t>fry</t>
+          <t>ek</t>
         </is>
       </c>
       <c r="F25" s="17" t="inlineStr">
         <is>
-          <t>KY</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="G25" s="17" t="inlineStr">
         <is>
-          <t>4B 4gas_fry</t>
+          <t>5A 5ek_log</t>
         </is>
       </c>
       <c r="H25" s="18" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I25" s="17" t="inlineStr">
         <is>
@@ -3250,21 +3250,21 @@
       </c>
       <c r="J25" s="17" t="inlineStr">
         <is>
-          <t>fry</t>
+          <t>ek</t>
         </is>
       </c>
       <c r="K25" s="17" t="inlineStr">
         <is>
-          <t>KY</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="L25" s="17" t="inlineStr">
         <is>
-          <t>4B 4gas_fry</t>
+          <t>5A 5ek_log</t>
         </is>
       </c>
       <c r="M25" s="18" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="N25" s="17" t="inlineStr"/>
       <c r="O25" s="17" t="inlineStr"/>
@@ -3389,21 +3389,21 @@
       </c>
       <c r="E27" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>j1</t>
         </is>
       </c>
       <c r="F27" s="15" t="inlineStr">
         <is>
-          <t>KY</t>
+          <t>JT</t>
         </is>
       </c>
       <c r="G27" s="15" t="inlineStr">
         <is>
-          <t>3S 3sport</t>
+          <t>3B 3gas</t>
         </is>
       </c>
       <c r="H27" s="16" t="n">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c r="I27" s="15" t="inlineStr">
         <is>
@@ -3495,21 +3495,21 @@
       </c>
       <c r="E28" s="15" t="inlineStr">
         <is>
-          <t>ek</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F28" s="15" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="G28" s="15" t="inlineStr">
         <is>
-          <t>5A 5ek_log</t>
+          <t>3S 3sport</t>
         </is>
       </c>
       <c r="H28" s="16" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I28" s="15" t="inlineStr">
         <is>
@@ -3583,21 +3583,21 @@
       </c>
       <c r="E29" s="15" t="inlineStr">
         <is>
-          <t>j1</t>
+          <t>ek</t>
         </is>
       </c>
       <c r="F29" s="15" t="inlineStr">
         <is>
-          <t>JT</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="G29" s="15" t="inlineStr">
         <is>
-          <t>3B 3gas</t>
+          <t>5A 5ek_log</t>
         </is>
       </c>
       <c r="H29" s="16" t="n">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="I29" s="15" t="inlineStr"/>
       <c r="J29" s="15" t="inlineStr"/>
@@ -5596,21 +5596,21 @@
       </c>
       <c r="O5" s="15" t="inlineStr">
         <is>
-          <t>ek</t>
+          <t>-</t>
         </is>
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="Q5" s="15" t="inlineStr">
         <is>
-          <t>2A 2ek_fry</t>
+          <t>1B 1gas_log</t>
         </is>
       </c>
       <c r="R5" s="16" t="n">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="S5" s="15" t="inlineStr">
         <is>
@@ -5684,21 +5684,21 @@
       </c>
       <c r="O6" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ek</t>
         </is>
       </c>
       <c r="P6" s="15" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="Q6" s="15" t="inlineStr">
         <is>
-          <t>1B 1gas_log</t>
+          <t>2A 2ek_fry</t>
         </is>
       </c>
       <c r="R6" s="16" t="n">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="S6" s="15" t="inlineStr"/>
       <c r="T6" s="15" t="inlineStr"/>
@@ -8272,16 +8272,16 @@
       </c>
       <c r="Z5" s="15" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>SZ</t>
         </is>
       </c>
       <c r="AA5" s="15" t="inlineStr">
         <is>
-          <t>3S 3sport</t>
+          <t>2d 2wz</t>
         </is>
       </c>
       <c r="AB5" s="16" t="n">
-        <v>7</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" ht="14.3" customHeight="1">
@@ -8324,16 +8324,16 @@
       </c>
       <c r="Z6" s="15" t="inlineStr">
         <is>
-          <t>SZ</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="AA6" s="15" t="inlineStr">
         <is>
-          <t>2d 2wz</t>
+          <t>3S 3sport</t>
         </is>
       </c>
       <c r="AB6" s="16" t="n">
-        <v>112</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" ht="14.3" customHeight="1">
@@ -8391,16 +8391,16 @@
       </c>
       <c r="U7" s="17" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>SZ</t>
         </is>
       </c>
       <c r="V7" s="17" t="inlineStr">
         <is>
-          <t>4B 4gas_fry</t>
+          <t>3d 3wz</t>
         </is>
       </c>
       <c r="W7" s="18" t="n">
-        <v>203</v>
+        <v>112</v>
       </c>
       <c r="X7" s="17" t="inlineStr"/>
       <c r="Y7" s="17" t="inlineStr"/>
@@ -8443,16 +8443,16 @@
       </c>
       <c r="U8" s="17" t="inlineStr">
         <is>
-          <t>SZ</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="V8" s="17" t="inlineStr">
         <is>
-          <t>3d 3wz</t>
+          <t>4B 4gas_fry</t>
         </is>
       </c>
       <c r="W8" s="18" t="n">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="X8" s="17" t="inlineStr"/>
       <c r="Y8" s="17" t="inlineStr"/>
@@ -8608,16 +8608,16 @@
       </c>
       <c r="Z10" s="15" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>SZ</t>
         </is>
       </c>
       <c r="AA10" s="15" t="inlineStr">
         <is>
-          <t>3C 3hot</t>
+          <t>2L 2log</t>
         </is>
       </c>
       <c r="AB10" s="16" t="n">
-        <v>208</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" ht="14.3" customHeight="1">
@@ -8660,16 +8660,16 @@
       </c>
       <c r="Z11" s="15" t="inlineStr">
         <is>
-          <t>SZ</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="AA11" s="15" t="inlineStr">
         <is>
-          <t>2L 2log</t>
+          <t>3C 3hot</t>
         </is>
       </c>
       <c r="AB11" s="16" t="n">
-        <v>112</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" ht="14.3" customHeight="1">
@@ -10686,16 +10686,16 @@
       </c>
       <c r="F5" s="15" t="inlineStr">
         <is>
-          <t>IB</t>
+          <t>GM</t>
         </is>
       </c>
       <c r="G5" s="15" t="inlineStr">
         <is>
-          <t>4A 4ra_log</t>
+          <t>2C 2hot</t>
         </is>
       </c>
       <c r="H5" s="16" t="n">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="I5" s="15" t="inlineStr">
         <is>
@@ -10732,39 +10732,41 @@
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
+          <t>IB</t>
+        </is>
+      </c>
+      <c r="Q5" s="15" t="inlineStr">
+        <is>
+          <t>2L 2log</t>
+        </is>
+      </c>
+      <c r="R5" s="16" t="n">
+        <v>111</v>
+      </c>
+      <c r="S5" s="15" t="inlineStr">
+        <is>
+          <t>jęz.polski</t>
+        </is>
+      </c>
+      <c r="T5" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U5" s="15" t="inlineStr">
+        <is>
           <t>GM</t>
         </is>
       </c>
-      <c r="Q5" s="15" t="inlineStr">
-        <is>
-          <t>3B 3gas</t>
-        </is>
-      </c>
-      <c r="R5" s="16" t="n">
-        <v>11</v>
-      </c>
-      <c r="S5" s="15" t="inlineStr">
-        <is>
-          <t>jęz.polski</t>
-        </is>
-      </c>
-      <c r="T5" s="15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U5" s="15" t="inlineStr">
-        <is>
-          <t>IB</t>
-        </is>
-      </c>
       <c r="V5" s="15" t="inlineStr">
         <is>
-          <t>3d 3wz</t>
-        </is>
-      </c>
-      <c r="W5" s="16" t="n">
-        <v>111</v>
+          <t>3JL</t>
+        </is>
+      </c>
+      <c r="W5" s="16" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
       </c>
       <c r="X5" s="15" t="inlineStr">
         <is>
@@ -10810,16 +10812,16 @@
       </c>
       <c r="F6" s="15" t="inlineStr">
         <is>
-          <t>GM</t>
+          <t>IB</t>
         </is>
       </c>
       <c r="G6" s="15" t="inlineStr">
         <is>
-          <t>2C 2hot</t>
+          <t>4A 4ra_log</t>
         </is>
       </c>
       <c r="H6" s="16" t="n">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I6" s="15" t="inlineStr"/>
       <c r="J6" s="15" t="inlineStr"/>
@@ -10838,41 +10840,39 @@
       </c>
       <c r="P6" s="15" t="inlineStr">
         <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="Q6" s="15" t="inlineStr">
+        <is>
+          <t>3B 3gas</t>
+        </is>
+      </c>
+      <c r="R6" s="16" t="n">
+        <v>11</v>
+      </c>
+      <c r="S6" s="15" t="inlineStr">
+        <is>
+          <t>jęz.polski</t>
+        </is>
+      </c>
+      <c r="T6" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U6" s="15" t="inlineStr">
+        <is>
           <t>IB</t>
         </is>
       </c>
-      <c r="Q6" s="15" t="inlineStr">
-        <is>
-          <t>2L 2log</t>
-        </is>
-      </c>
-      <c r="R6" s="16" t="n">
+      <c r="V6" s="15" t="inlineStr">
+        <is>
+          <t>3d 3wz</t>
+        </is>
+      </c>
+      <c r="W6" s="16" t="n">
         <v>111</v>
-      </c>
-      <c r="S6" s="15" t="inlineStr">
-        <is>
-          <t>jęz.polski</t>
-        </is>
-      </c>
-      <c r="T6" s="15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U6" s="15" t="inlineStr">
-        <is>
-          <t>GM</t>
-        </is>
-      </c>
-      <c r="V6" s="15" t="inlineStr">
-        <is>
-          <t>3JL</t>
-        </is>
-      </c>
-      <c r="W6" s="16" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
       </c>
       <c r="X6" s="15" t="inlineStr"/>
       <c r="Y6" s="15" t="inlineStr"/>
@@ -10902,16 +10902,16 @@
       </c>
       <c r="F7" s="17" t="inlineStr">
         <is>
-          <t>IB</t>
+          <t>GM</t>
         </is>
       </c>
       <c r="G7" s="17" t="inlineStr">
         <is>
-          <t>4A 4ra_log</t>
+          <t>2C 2hot</t>
         </is>
       </c>
       <c r="H7" s="18" t="n">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="I7" s="17" t="inlineStr">
         <is>
@@ -10948,16 +10948,16 @@
       </c>
       <c r="P7" s="17" t="inlineStr">
         <is>
-          <t>GM</t>
+          <t>IB</t>
         </is>
       </c>
       <c r="Q7" s="17" t="inlineStr">
         <is>
-          <t>3B 3gas</t>
+          <t>2L 2log</t>
         </is>
       </c>
       <c r="R7" s="18" t="n">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="S7" s="17" t="inlineStr">
         <is>
@@ -11026,16 +11026,16 @@
       </c>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>GM</t>
+          <t>IB</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>2C 2hot</t>
+          <t>4A 4ra_log</t>
         </is>
       </c>
       <c r="H8" s="18" t="n">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I8" s="17" t="inlineStr">
         <is>
@@ -11072,16 +11072,16 @@
       </c>
       <c r="P8" s="17" t="inlineStr">
         <is>
-          <t>IB</t>
+          <t>GM</t>
         </is>
       </c>
       <c r="Q8" s="17" t="inlineStr">
         <is>
-          <t>2L 2log</t>
+          <t>3B 3gas</t>
         </is>
       </c>
       <c r="R8" s="18" t="n">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="S8" s="17" t="inlineStr">
         <is>
@@ -11275,16 +11275,16 @@
       </c>
       <c r="U10" s="15" t="inlineStr">
         <is>
-          <t>IB</t>
+          <t>GM</t>
         </is>
       </c>
       <c r="V10" s="15" t="inlineStr">
         <is>
-          <t>5A 5ek_log</t>
+          <t>3e 3wz</t>
         </is>
       </c>
       <c r="W10" s="16" t="n">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="X10" s="15" t="inlineStr">
         <is>
@@ -11363,16 +11363,16 @@
       </c>
       <c r="U11" s="15" t="inlineStr">
         <is>
-          <t>GM</t>
+          <t>IB</t>
         </is>
       </c>
       <c r="V11" s="15" t="inlineStr">
         <is>
-          <t>3e 3wz</t>
+          <t>5A 5ek_log</t>
         </is>
       </c>
       <c r="W11" s="16" t="n">
-        <v>208</v>
+        <v>111</v>
       </c>
       <c r="X11" s="15" t="inlineStr">
         <is>
@@ -11443,16 +11443,16 @@
       </c>
       <c r="K12" s="17" t="inlineStr">
         <is>
-          <t>IB</t>
+          <t>SZ</t>
         </is>
       </c>
       <c r="L12" s="17" t="inlineStr">
         <is>
-          <t>5B 5gas_fry</t>
+          <t>1d 1wz</t>
         </is>
       </c>
       <c r="M12" s="18" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N12" s="17" t="inlineStr">
         <is>
@@ -11484,44 +11484,44 @@
       </c>
       <c r="T12" s="17" t="inlineStr">
         <is>
+          <t>pol</t>
+        </is>
+      </c>
+      <c r="U12" s="17" t="inlineStr">
+        <is>
+          <t>SZ</t>
+        </is>
+      </c>
+      <c r="V12" s="17" t="inlineStr">
+        <is>
+          <t>2d 2wz</t>
+        </is>
+      </c>
+      <c r="W12" s="18" t="n">
+        <v>112</v>
+      </c>
+      <c r="X12" s="17" t="inlineStr">
+        <is>
+          <t>jęz.polski</t>
+        </is>
+      </c>
+      <c r="Y12" s="17" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U12" s="17" t="inlineStr">
+      <c r="Z12" s="17" t="inlineStr">
         <is>
           <t>IB</t>
         </is>
       </c>
-      <c r="V12" s="17" t="inlineStr">
-        <is>
-          <t>5B 5gas_fry</t>
-        </is>
-      </c>
-      <c r="W12" s="18" t="n">
+      <c r="AA12" s="17" t="inlineStr">
+        <is>
+          <t>2B 2gas</t>
+        </is>
+      </c>
+      <c r="AB12" s="18" t="n">
         <v>111</v>
-      </c>
-      <c r="X12" s="17" t="inlineStr">
-        <is>
-          <t>jęz.polski</t>
-        </is>
-      </c>
-      <c r="Y12" s="17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z12" s="17" t="inlineStr">
-        <is>
-          <t>GM</t>
-        </is>
-      </c>
-      <c r="AA12" s="17" t="inlineStr">
-        <is>
-          <t>3S 3sport</t>
-        </is>
-      </c>
-      <c r="AB12" s="18" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="13" ht="14.3" customHeight="1">
@@ -11567,16 +11567,16 @@
       </c>
       <c r="K13" s="17" t="inlineStr">
         <is>
-          <t>SZ</t>
+          <t>IB</t>
         </is>
       </c>
       <c r="L13" s="17" t="inlineStr">
         <is>
-          <t>1d 1wz</t>
+          <t>5B 5gas_fry</t>
         </is>
       </c>
       <c r="M13" s="18" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N13" s="17" t="inlineStr"/>
       <c r="O13" s="17" t="inlineStr"/>
@@ -11590,21 +11590,21 @@
       </c>
       <c r="T13" s="17" t="inlineStr">
         <is>
-          <t>pol</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U13" s="17" t="inlineStr">
         <is>
-          <t>SZ</t>
+          <t>IB</t>
         </is>
       </c>
       <c r="V13" s="17" t="inlineStr">
         <is>
-          <t>2d 2wz</t>
+          <t>5B 5gas_fry</t>
         </is>
       </c>
       <c r="W13" s="18" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X13" s="17" t="inlineStr">
         <is>
@@ -11618,16 +11618,16 @@
       </c>
       <c r="Z13" s="17" t="inlineStr">
         <is>
-          <t>IB</t>
+          <t>GM</t>
         </is>
       </c>
       <c r="AA13" s="17" t="inlineStr">
         <is>
-          <t>2B 2gas</t>
+          <t>3S 3sport</t>
         </is>
       </c>
       <c r="AB13" s="18" t="n">
-        <v>111</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" ht="14.3" customHeight="1">
@@ -11727,16 +11727,16 @@
       </c>
       <c r="K15" s="15" t="inlineStr">
         <is>
-          <t>GM</t>
+          <t>IB</t>
         </is>
       </c>
       <c r="L15" s="15" t="inlineStr">
         <is>
-          <t>3S 3sport</t>
+          <t>2B 2gas</t>
         </is>
       </c>
       <c r="M15" s="16" t="n">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="N15" s="15" t="inlineStr">
         <is>
@@ -11833,16 +11833,16 @@
       </c>
       <c r="K16" s="15" t="inlineStr">
         <is>
-          <t>IB</t>
+          <t>GM</t>
         </is>
       </c>
       <c r="L16" s="15" t="inlineStr">
         <is>
-          <t>2B 2gas</t>
+          <t>3S 3sport</t>
         </is>
       </c>
       <c r="M16" s="16" t="n">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="N16" s="15" t="inlineStr"/>
       <c r="O16" s="15" t="inlineStr"/>
@@ -11923,16 +11923,16 @@
       </c>
       <c r="K17" s="17" t="inlineStr">
         <is>
-          <t>GM</t>
+          <t>IB</t>
         </is>
       </c>
       <c r="L17" s="17" t="inlineStr">
         <is>
-          <t>3S 3sport</t>
+          <t>2B 2gas</t>
         </is>
       </c>
       <c r="M17" s="18" t="n">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="N17" s="17" t="inlineStr">
         <is>
@@ -11969,16 +11969,16 @@
       </c>
       <c r="U17" s="17" t="inlineStr">
         <is>
-          <t>IB</t>
+          <t>GM</t>
         </is>
       </c>
       <c r="V17" s="17" t="inlineStr">
         <is>
-          <t>4B 4gas_fry</t>
+          <t>2C 2hot</t>
         </is>
       </c>
       <c r="W17" s="18" t="n">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="X17" s="17" t="inlineStr">
         <is>
@@ -12047,16 +12047,16 @@
       </c>
       <c r="K18" s="17" t="inlineStr">
         <is>
-          <t>IB</t>
+          <t>GM</t>
         </is>
       </c>
       <c r="L18" s="17" t="inlineStr">
         <is>
-          <t>2B 2gas</t>
+          <t>3S 3sport</t>
         </is>
       </c>
       <c r="M18" s="18" t="n">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="N18" s="17" t="inlineStr"/>
       <c r="O18" s="17" t="inlineStr"/>
@@ -12075,16 +12075,16 @@
       </c>
       <c r="U18" s="17" t="inlineStr">
         <is>
-          <t>GM</t>
+          <t>IB</t>
         </is>
       </c>
       <c r="V18" s="17" t="inlineStr">
         <is>
-          <t>2C 2hot</t>
+          <t>4B 4gas_fry</t>
         </is>
       </c>
       <c r="W18" s="18" t="n">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="X18" s="17" t="inlineStr"/>
       <c r="Y18" s="17" t="inlineStr"/>
@@ -12114,16 +12114,16 @@
       </c>
       <c r="F19" s="15" t="inlineStr">
         <is>
-          <t>GM</t>
+          <t>SZ</t>
         </is>
       </c>
       <c r="G19" s="15" t="inlineStr">
         <is>
-          <t>3A 3ra_fry</t>
+          <t>1d 1wz</t>
         </is>
       </c>
       <c r="H19" s="16" t="n">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
@@ -12238,16 +12238,16 @@
       </c>
       <c r="F20" s="15" t="inlineStr">
         <is>
-          <t>IB</t>
+          <t>GM</t>
         </is>
       </c>
       <c r="G20" s="15" t="inlineStr">
         <is>
-          <t>4B 4gas_fry</t>
+          <t>3A 3ra_fry</t>
         </is>
       </c>
       <c r="H20" s="16" t="n">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="I20" s="15" t="inlineStr"/>
       <c r="J20" s="15" t="inlineStr"/>
@@ -12290,16 +12290,16 @@
       </c>
       <c r="F21" s="15" t="inlineStr">
         <is>
-          <t>SZ</t>
+          <t>IB</t>
         </is>
       </c>
       <c r="G21" s="15" t="inlineStr">
         <is>
-          <t>1d 1wz</t>
+          <t>4B 4gas_fry</t>
         </is>
       </c>
       <c r="H21" s="16" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I21" s="15" t="inlineStr"/>
       <c r="J21" s="15" t="inlineStr"/>
@@ -14262,7 +14262,7 @@
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="12" customWidth="1" min="11" max="11"/>
     <col width="13" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="12" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="12" customWidth="1" min="16" max="16"/>
@@ -14799,16 +14799,16 @@
       </c>
       <c r="P7" s="17" t="inlineStr">
         <is>
-          <t>KJ</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="Q7" s="17" t="inlineStr">
         <is>
-          <t>3A 3ra_fry</t>
+          <t>1B 1gas_log</t>
         </is>
       </c>
       <c r="R7" s="18" t="n">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="S7" s="17" t="inlineStr">
         <is>
@@ -14845,16 +14845,16 @@
       </c>
       <c r="Z7" s="17" t="inlineStr">
         <is>
-          <t>KM</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="AA7" s="17" t="inlineStr">
         <is>
-          <t>4A 4ra_log</t>
+          <t>3L 3log</t>
         </is>
       </c>
       <c r="AB7" s="18" t="n">
-        <v>2</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" ht="14.3" customHeight="1">
@@ -14877,64 +14877,64 @@
       </c>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>KM</t>
+          <t>BJ</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>3B 3gas</t>
+          <t>2L 2log</t>
         </is>
       </c>
       <c r="H8" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="I8" s="17" t="inlineStr">
+        <is>
+          <t>matematyka</t>
+        </is>
+      </c>
+      <c r="J8" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K8" s="17" t="inlineStr">
+        <is>
+          <t>BJ</t>
+        </is>
+      </c>
+      <c r="L8" s="17" t="inlineStr">
+        <is>
+          <t>3JL</t>
+        </is>
+      </c>
+      <c r="M8" s="18" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="N8" s="17" t="inlineStr">
+        <is>
+          <t>matematyka</t>
+        </is>
+      </c>
+      <c r="O8" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P8" s="17" t="inlineStr">
+        <is>
+          <t>KJ</t>
+        </is>
+      </c>
+      <c r="Q8" s="17" t="inlineStr">
+        <is>
+          <t>3A 3ra_fry</t>
+        </is>
+      </c>
+      <c r="R8" s="18" t="n">
         <v>2</v>
-      </c>
-      <c r="I8" s="17" t="inlineStr">
-        <is>
-          <t>matematyka</t>
-        </is>
-      </c>
-      <c r="J8" s="17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K8" s="17" t="inlineStr">
-        <is>
-          <t>BJ</t>
-        </is>
-      </c>
-      <c r="L8" s="17" t="inlineStr">
-        <is>
-          <t>3JL</t>
-        </is>
-      </c>
-      <c r="M8" s="18" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="N8" s="17" t="inlineStr">
-        <is>
-          <t>matematyka</t>
-        </is>
-      </c>
-      <c r="O8" s="17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P8" s="17" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="Q8" s="17" t="inlineStr">
-        <is>
-          <t>1B 1gas_log</t>
-        </is>
-      </c>
-      <c r="R8" s="18" t="n">
-        <v>110</v>
       </c>
       <c r="S8" s="17" t="inlineStr">
         <is>
@@ -14971,16 +14971,16 @@
       </c>
       <c r="Z8" s="17" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>KM</t>
         </is>
       </c>
       <c r="AA8" s="17" t="inlineStr">
         <is>
-          <t>3L 3log</t>
+          <t>4A 4ra_log</t>
         </is>
       </c>
       <c r="AB8" s="18" t="n">
-        <v>110</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" ht="14.3" customHeight="1">
@@ -15003,16 +15003,16 @@
       </c>
       <c r="F9" s="17" t="inlineStr">
         <is>
-          <t>BJ</t>
+          <t>KM</t>
         </is>
       </c>
       <c r="G9" s="17" t="inlineStr">
         <is>
-          <t>2L 2log</t>
+          <t>3B 3gas</t>
         </is>
       </c>
       <c r="H9" s="18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I9" s="17" t="inlineStr"/>
       <c r="J9" s="17" t="inlineStr"/>
@@ -15080,16 +15080,18 @@
       </c>
       <c r="K10" s="15" t="inlineStr">
         <is>
-          <t>KM</t>
+          <t>BJ</t>
         </is>
       </c>
       <c r="L10" s="15" t="inlineStr">
         <is>
-          <t>4A 4ra_log</t>
-        </is>
-      </c>
-      <c r="M10" s="16" t="n">
-        <v>2</v>
+          <t>3JL</t>
+        </is>
+      </c>
+      <c r="M10" s="16" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
       </c>
       <c r="N10" s="15" t="inlineStr">
         <is>
@@ -15126,16 +15128,16 @@
       </c>
       <c r="U10" s="15" t="inlineStr">
         <is>
-          <t>KM</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="V10" s="15" t="inlineStr">
         <is>
-          <t>5B 5gas_fry</t>
+          <t>3d 3wz</t>
         </is>
       </c>
       <c r="W10" s="16" t="n">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="X10" s="15" t="inlineStr">
         <is>
@@ -15144,21 +15146,21 @@
       </c>
       <c r="Y10" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>mat</t>
         </is>
       </c>
       <c r="Z10" s="15" t="inlineStr">
         <is>
-          <t>KM</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="AA10" s="15" t="inlineStr">
         <is>
-          <t>5B 5gas_fry</t>
+          <t>2d 2wz</t>
         </is>
       </c>
       <c r="AB10" s="16" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" ht="14.3" customHeight="1">
@@ -15204,18 +15206,16 @@
       </c>
       <c r="K11" s="15" t="inlineStr">
         <is>
-          <t>BJ</t>
+          <t>KM</t>
         </is>
       </c>
       <c r="L11" s="15" t="inlineStr">
         <is>
-          <t>3JL</t>
-        </is>
-      </c>
-      <c r="M11" s="16" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+          <t>4A 4ra_log</t>
+        </is>
+      </c>
+      <c r="M11" s="16" t="n">
+        <v>2</v>
       </c>
       <c r="N11" s="15" t="inlineStr"/>
       <c r="O11" s="15" t="inlineStr"/>
@@ -15234,16 +15234,16 @@
       </c>
       <c r="U11" s="15" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>KM</t>
         </is>
       </c>
       <c r="V11" s="15" t="inlineStr">
         <is>
-          <t>3d 3wz</t>
+          <t>5B 5gas_fry</t>
         </is>
       </c>
       <c r="W11" s="16" t="n">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="X11" s="15" t="inlineStr">
         <is>
@@ -15252,21 +15252,21 @@
       </c>
       <c r="Y11" s="15" t="inlineStr">
         <is>
-          <t>mat</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Z11" s="15" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>KM</t>
         </is>
       </c>
       <c r="AA11" s="15" t="inlineStr">
         <is>
-          <t>2d 2wz</t>
+          <t>5B 5gas_fry</t>
         </is>
       </c>
       <c r="AB11" s="16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" ht="14.3" customHeight="1">
@@ -15407,16 +15407,16 @@
       </c>
       <c r="P13" s="17" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>KM</t>
         </is>
       </c>
       <c r="Q13" s="17" t="inlineStr">
         <is>
-          <t>5ZI</t>
+          <t>5OP</t>
         </is>
       </c>
       <c r="R13" s="18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S13" s="17" t="inlineStr">
         <is>
@@ -15531,16 +15531,16 @@
       </c>
       <c r="P14" s="17" t="inlineStr">
         <is>
-          <t>KM</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="Q14" s="17" t="inlineStr">
         <is>
-          <t>5OP</t>
+          <t>5ZI</t>
         </is>
       </c>
       <c r="R14" s="18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S14" s="17" t="inlineStr">
         <is>
@@ -15851,16 +15851,16 @@
       </c>
       <c r="P17" s="15" t="inlineStr">
         <is>
-          <t>KM</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="Q17" s="15" t="inlineStr">
         <is>
-          <t>3B 3gas</t>
+          <t>1d 1wz</t>
         </is>
       </c>
       <c r="R17" s="16" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S17" s="15" t="inlineStr">
         <is>
@@ -15939,16 +15939,16 @@
       </c>
       <c r="P18" s="15" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>KM</t>
         </is>
       </c>
       <c r="Q18" s="15" t="inlineStr">
         <is>
-          <t>1d 1wz</t>
+          <t>3B 3gas</t>
         </is>
       </c>
       <c r="R18" s="16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S18" s="15" t="inlineStr"/>
       <c r="T18" s="15" t="inlineStr"/>
@@ -15983,16 +15983,16 @@
       </c>
       <c r="F19" s="17" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>KM</t>
         </is>
       </c>
       <c r="G19" s="17" t="inlineStr">
         <is>
-          <t>5ZI</t>
+          <t>5OP</t>
         </is>
       </c>
       <c r="H19" s="18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I19" s="17" t="inlineStr">
         <is>
@@ -16107,16 +16107,16 @@
       </c>
       <c r="F20" s="17" t="inlineStr">
         <is>
-          <t>KM</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="G20" s="17" t="inlineStr">
         <is>
-          <t>5OP</t>
+          <t>5ZI</t>
         </is>
       </c>
       <c r="H20" s="18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I20" s="17" t="inlineStr"/>
       <c r="J20" s="17" t="inlineStr"/>
@@ -16153,21 +16153,21 @@
       </c>
       <c r="T20" s="17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>mat</t>
         </is>
       </c>
       <c r="U20" s="17" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="V20" s="17" t="inlineStr">
         <is>
-          <t>3L 3log</t>
+          <t>2d 2wz</t>
         </is>
       </c>
       <c r="W20" s="18" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="X20" s="17" t="inlineStr"/>
       <c r="Y20" s="17" t="inlineStr"/>
@@ -16205,21 +16205,21 @@
       </c>
       <c r="T21" s="17" t="inlineStr">
         <is>
-          <t>mat</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U21" s="17" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="V21" s="17" t="inlineStr">
         <is>
-          <t>2d 2wz</t>
+          <t>3L 3log</t>
         </is>
       </c>
       <c r="W21" s="18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="X21" s="17" t="inlineStr"/>
       <c r="Y21" s="17" t="inlineStr"/>
@@ -19805,7 +19805,7 @@
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="12" customWidth="1" min="16" max="16"/>
     <col width="13" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
     <col width="11" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
     <col width="12" customWidth="1" min="21" max="21"/>
@@ -34958,21 +34958,21 @@
       </c>
       <c r="Y5" s="15" t="inlineStr">
         <is>
-          <t>j1</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="Z5" s="15" t="inlineStr">
         <is>
-          <t>MŚ</t>
+          <t>KF</t>
         </is>
       </c>
       <c r="AA5" s="15" t="inlineStr">
         <is>
-          <t>3B 3gas</t>
+          <t>2C 2hot</t>
         </is>
       </c>
       <c r="AB5" s="16" t="n">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" ht="14.3" customHeight="1">
@@ -35010,21 +35010,21 @@
       </c>
       <c r="Y6" s="15" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>j1</t>
         </is>
       </c>
       <c r="Z6" s="15" t="inlineStr">
         <is>
-          <t>KF</t>
+          <t>MŚ</t>
         </is>
       </c>
       <c r="AA6" s="15" t="inlineStr">
         <is>
-          <t>2C 2hot</t>
+          <t>3B 3gas</t>
         </is>
       </c>
       <c r="AB6" s="16" t="n">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" ht="14.3" customHeight="1">
@@ -35064,21 +35064,21 @@
       </c>
       <c r="Y7" s="17" t="inlineStr">
         <is>
-          <t>j1</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="Z7" s="17" t="inlineStr">
         <is>
-          <t>MŚ</t>
+          <t>KF</t>
         </is>
       </c>
       <c r="AA7" s="17" t="inlineStr">
         <is>
-          <t>3B 3gas</t>
+          <t>2C 2hot</t>
         </is>
       </c>
       <c r="AB7" s="18" t="n">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" ht="14.3" customHeight="1">
@@ -35116,21 +35116,21 @@
       </c>
       <c r="Y8" s="17" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>j1</t>
         </is>
       </c>
       <c r="Z8" s="17" t="inlineStr">
         <is>
-          <t>KF</t>
+          <t>MŚ</t>
         </is>
       </c>
       <c r="AA8" s="17" t="inlineStr">
         <is>
-          <t>2C 2hot</t>
+          <t>3B 3gas</t>
         </is>
       </c>
       <c r="AB8" s="18" t="n">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" ht="14.3" customHeight="1">
@@ -43288,16 +43288,16 @@
       </c>
       <c r="U9" s="15" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>SM</t>
         </is>
       </c>
       <c r="V9" s="15" t="inlineStr">
         <is>
-          <t>5B 5gas_fry</t>
+          <t>2L 2log</t>
         </is>
       </c>
       <c r="W9" s="16" t="n">
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="X9" s="15" t="inlineStr">
         <is>
@@ -43358,16 +43358,16 @@
       </c>
       <c r="U10" s="15" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="V10" s="15" t="inlineStr">
         <is>
-          <t>2L 2log</t>
+          <t>5B 5gas_fry</t>
         </is>
       </c>
       <c r="W10" s="16" t="n">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="X10" s="15" t="inlineStr"/>
       <c r="Y10" s="15" t="inlineStr"/>
@@ -43590,16 +43590,16 @@
       </c>
       <c r="U13" s="15" t="inlineStr">
         <is>
-          <t>#re4</t>
+          <t>SM</t>
         </is>
       </c>
       <c r="V13" s="15" t="inlineStr">
         <is>
-          <t>4A 4ra_log</t>
+          <t>3d 3wz</t>
         </is>
       </c>
       <c r="W13" s="16" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X13" s="15" t="inlineStr">
         <is>
@@ -43665,7 +43665,7 @@
       </c>
       <c r="V14" s="15" t="inlineStr">
         <is>
-          <t>4B 4gas_fry</t>
+          <t>4A 4ra_log</t>
         </is>
       </c>
       <c r="W14" s="16" t="n">
@@ -43730,16 +43730,16 @@
       </c>
       <c r="U15" s="15" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>#re4</t>
         </is>
       </c>
       <c r="V15" s="15" t="inlineStr">
         <is>
-          <t>3d 3wz</t>
+          <t>4B 4gas_fry</t>
         </is>
       </c>
       <c r="W15" s="16" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="X15" s="15" t="inlineStr"/>
       <c r="Y15" s="15" t="inlineStr"/>
@@ -43843,16 +43843,16 @@
       </c>
       <c r="Z16" s="17" t="inlineStr">
         <is>
-          <t>#re4</t>
+          <t>#re2</t>
         </is>
       </c>
       <c r="AA16" s="17" t="inlineStr">
         <is>
-          <t>4A 4ra_log</t>
+          <t>2B 2gas</t>
         </is>
       </c>
       <c r="AB16" s="18" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" ht="14.3" customHeight="1">
@@ -43918,7 +43918,7 @@
       </c>
       <c r="AA17" s="17" t="inlineStr">
         <is>
-          <t>2B 2gas</t>
+          <t>2C 2hot</t>
         </is>
       </c>
       <c r="AB17" s="18" t="n">
@@ -43970,7 +43970,7 @@
       </c>
       <c r="AA18" s="17" t="inlineStr">
         <is>
-          <t>4B 4gas_fry</t>
+          <t>4A 4ra_log</t>
         </is>
       </c>
       <c r="AB18" s="18" t="n">
@@ -44017,16 +44017,16 @@
       </c>
       <c r="Z19" s="17" t="inlineStr">
         <is>
-          <t>#re2</t>
+          <t>#re4</t>
         </is>
       </c>
       <c r="AA19" s="17" t="inlineStr">
         <is>
-          <t>2C 2hot</t>
+          <t>4B 4gas_fry</t>
         </is>
       </c>
       <c r="AB19" s="18" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" ht="14.3" customHeight="1">
@@ -46361,122 +46361,122 @@
       </c>
       <c r="E5" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>j1</t>
         </is>
       </c>
       <c r="F5" s="15" t="inlineStr">
         <is>
+          <t>KZ</t>
+        </is>
+      </c>
+      <c r="G5" s="15" t="inlineStr">
+        <is>
+          <t>1d 1wz</t>
+        </is>
+      </c>
+      <c r="H5" s="16" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="I5" s="15" t="inlineStr">
+        <is>
+          <t>w.f</t>
+        </is>
+      </c>
+      <c r="J5" s="15" t="inlineStr">
+        <is>
+          <t>fry</t>
+        </is>
+      </c>
+      <c r="K5" s="15" t="inlineStr">
+        <is>
+          <t>KZ</t>
+        </is>
+      </c>
+      <c r="L5" s="15" t="inlineStr">
+        <is>
+          <t>2A 2ek_fry</t>
+        </is>
+      </c>
+      <c r="M5" s="16" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="N5" s="15" t="inlineStr">
+        <is>
+          <t>w.f</t>
+        </is>
+      </c>
+      <c r="O5" s="15" t="inlineStr">
+        <is>
+          <t>fry</t>
+        </is>
+      </c>
+      <c r="P5" s="15" t="inlineStr">
+        <is>
+          <t>KZ</t>
+        </is>
+      </c>
+      <c r="Q5" s="15" t="inlineStr">
+        <is>
+          <t>2A 2ek_fry</t>
+        </is>
+      </c>
+      <c r="R5" s="16" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="S5" s="15" t="inlineStr">
+        <is>
+          <t>w.f</t>
+        </is>
+      </c>
+      <c r="T5" s="15" t="inlineStr">
+        <is>
+          <t>j1</t>
+        </is>
+      </c>
+      <c r="U5" s="15" t="inlineStr">
+        <is>
           <t>MP</t>
         </is>
       </c>
-      <c r="G5" s="15" t="inlineStr">
-        <is>
-          <t>3S 3sport</t>
-        </is>
-      </c>
-      <c r="H5" s="16" t="inlineStr">
-        <is>
-          <t>st1</t>
-        </is>
-      </c>
-      <c r="I5" s="15" t="inlineStr">
+      <c r="V5" s="15" t="inlineStr">
+        <is>
+          <t>2B 2gas</t>
+        </is>
+      </c>
+      <c r="W5" s="16" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="X5" s="15" t="inlineStr">
         <is>
           <t>w.f</t>
         </is>
       </c>
-      <c r="J5" s="15" t="inlineStr">
-        <is>
-          <t>fry</t>
-        </is>
-      </c>
-      <c r="K5" s="15" t="inlineStr">
-        <is>
-          <t>KZ</t>
-        </is>
-      </c>
-      <c r="L5" s="15" t="inlineStr">
-        <is>
-          <t>2A 2ek_fry</t>
-        </is>
-      </c>
-      <c r="M5" s="16" t="inlineStr">
+      <c r="Y5" s="15" t="inlineStr">
+        <is>
+          <t>j1</t>
+        </is>
+      </c>
+      <c r="Z5" s="15" t="inlineStr">
+        <is>
+          <t>JB</t>
+        </is>
+      </c>
+      <c r="AA5" s="15" t="inlineStr">
+        <is>
+          <t>3d 3wz</t>
+        </is>
+      </c>
+      <c r="AB5" s="16" t="inlineStr">
         <is>
           <t>s2</t>
-        </is>
-      </c>
-      <c r="N5" s="15" t="inlineStr">
-        <is>
-          <t>w.f</t>
-        </is>
-      </c>
-      <c r="O5" s="15" t="inlineStr">
-        <is>
-          <t>fry</t>
-        </is>
-      </c>
-      <c r="P5" s="15" t="inlineStr">
-        <is>
-          <t>KZ</t>
-        </is>
-      </c>
-      <c r="Q5" s="15" t="inlineStr">
-        <is>
-          <t>2A 2ek_fry</t>
-        </is>
-      </c>
-      <c r="R5" s="16" t="inlineStr">
-        <is>
-          <t>s2</t>
-        </is>
-      </c>
-      <c r="S5" s="15" t="inlineStr">
-        <is>
-          <t>w.f</t>
-        </is>
-      </c>
-      <c r="T5" s="15" t="inlineStr">
-        <is>
-          <t>j1</t>
-        </is>
-      </c>
-      <c r="U5" s="15" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="V5" s="15" t="inlineStr">
-        <is>
-          <t>2B 2gas</t>
-        </is>
-      </c>
-      <c r="W5" s="16" t="inlineStr">
-        <is>
-          <t>s1</t>
-        </is>
-      </c>
-      <c r="X5" s="15" t="inlineStr">
-        <is>
-          <t>w.f</t>
-        </is>
-      </c>
-      <c r="Y5" s="15" t="inlineStr">
-        <is>
-          <t>fry</t>
-        </is>
-      </c>
-      <c r="Z5" s="15" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="AA5" s="15" t="inlineStr">
-        <is>
-          <t>4B 4gas_fry</t>
-        </is>
-      </c>
-      <c r="AB5" s="16" t="inlineStr">
-        <is>
-          <t>s1</t>
         </is>
       </c>
     </row>
@@ -46495,122 +46495,122 @@
       </c>
       <c r="E6" s="15" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" s="15" t="inlineStr">
         <is>
-          <t>RT</t>
+          <t>MP</t>
         </is>
       </c>
       <c r="G6" s="15" t="inlineStr">
         <is>
-          <t>5B 5gas_fry</t>
+          <t>3S 3sport</t>
         </is>
       </c>
       <c r="H6" s="16" t="inlineStr">
         <is>
+          <t>st1</t>
+        </is>
+      </c>
+      <c r="I6" s="15" t="inlineStr">
+        <is>
+          <t>w.f</t>
+        </is>
+      </c>
+      <c r="J6" s="15" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="K6" s="15" t="inlineStr">
+        <is>
+          <t>JB</t>
+        </is>
+      </c>
+      <c r="L6" s="15" t="inlineStr">
+        <is>
+          <t>3L 3log</t>
+        </is>
+      </c>
+      <c r="M6" s="16" t="inlineStr">
+        <is>
           <t>s1</t>
         </is>
       </c>
-      <c r="I6" s="15" t="inlineStr">
+      <c r="N6" s="15" t="inlineStr">
         <is>
           <t>w.f</t>
         </is>
       </c>
-      <c r="J6" s="15" t="inlineStr">
+      <c r="O6" s="15" t="inlineStr">
         <is>
           <t>log</t>
         </is>
       </c>
-      <c r="K6" s="15" t="inlineStr">
-        <is>
-          <t>JB</t>
-        </is>
-      </c>
-      <c r="L6" s="15" t="inlineStr">
-        <is>
-          <t>3L 3log</t>
-        </is>
-      </c>
-      <c r="M6" s="16" t="inlineStr">
+      <c r="P6" s="15" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="Q6" s="15" t="inlineStr">
+        <is>
+          <t>5A 5ek_log</t>
+        </is>
+      </c>
+      <c r="R6" s="16" t="inlineStr">
         <is>
           <t>s1</t>
         </is>
       </c>
-      <c r="N6" s="15" t="inlineStr">
+      <c r="S6" s="15" t="inlineStr">
         <is>
           <t>w.f</t>
         </is>
       </c>
-      <c r="O6" s="15" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
-      <c r="P6" s="15" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="Q6" s="15" t="inlineStr">
-        <is>
-          <t>5A 5ek_log</t>
-        </is>
-      </c>
-      <c r="R6" s="16" t="inlineStr">
+      <c r="T6" s="15" t="inlineStr">
+        <is>
+          <t>j1</t>
+        </is>
+      </c>
+      <c r="U6" s="15" t="inlineStr">
+        <is>
+          <t>KZ</t>
+        </is>
+      </c>
+      <c r="V6" s="15" t="inlineStr">
+        <is>
+          <t>3e 3wz</t>
+        </is>
+      </c>
+      <c r="W6" s="16" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="X6" s="15" t="inlineStr">
+        <is>
+          <t>w.f</t>
+        </is>
+      </c>
+      <c r="Y6" s="15" t="inlineStr">
+        <is>
+          <t>fry</t>
+        </is>
+      </c>
+      <c r="Z6" s="15" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="AA6" s="15" t="inlineStr">
+        <is>
+          <t>4B 4gas_fry</t>
+        </is>
+      </c>
+      <c r="AB6" s="16" t="inlineStr">
         <is>
           <t>s1</t>
-        </is>
-      </c>
-      <c r="S6" s="15" t="inlineStr">
-        <is>
-          <t>w.f</t>
-        </is>
-      </c>
-      <c r="T6" s="15" t="inlineStr">
-        <is>
-          <t>j1</t>
-        </is>
-      </c>
-      <c r="U6" s="15" t="inlineStr">
-        <is>
-          <t>KZ</t>
-        </is>
-      </c>
-      <c r="V6" s="15" t="inlineStr">
-        <is>
-          <t>3e 3wz</t>
-        </is>
-      </c>
-      <c r="W6" s="16" t="inlineStr">
-        <is>
-          <t>s2</t>
-        </is>
-      </c>
-      <c r="X6" s="15" t="inlineStr">
-        <is>
-          <t>w.f</t>
-        </is>
-      </c>
-      <c r="Y6" s="15" t="inlineStr">
-        <is>
-          <t>j1</t>
-        </is>
-      </c>
-      <c r="Z6" s="15" t="inlineStr">
-        <is>
-          <t>JB</t>
-        </is>
-      </c>
-      <c r="AA6" s="15" t="inlineStr">
-        <is>
-          <t>3d 3wz</t>
-        </is>
-      </c>
-      <c r="AB6" s="16" t="inlineStr">
-        <is>
-          <t>s2</t>
         </is>
       </c>
     </row>
@@ -46629,22 +46629,22 @@
       </c>
       <c r="E7" s="15" t="inlineStr">
         <is>
-          <t>j1</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="F7" s="15" t="inlineStr">
         <is>
-          <t>KZ</t>
+          <t>RT</t>
         </is>
       </c>
       <c r="G7" s="15" t="inlineStr">
         <is>
-          <t>1d 1wz</t>
+          <t>5B 5gas_fry</t>
         </is>
       </c>
       <c r="H7" s="16" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>s1</t>
         </is>
       </c>
       <c r="I7" s="15" t="inlineStr"/>
@@ -46685,122 +46685,122 @@
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>j1</t>
         </is>
       </c>
       <c r="F8" s="17" t="inlineStr">
         <is>
+          <t>KZ</t>
+        </is>
+      </c>
+      <c r="G8" s="17" t="inlineStr">
+        <is>
+          <t>1d 1wz</t>
+        </is>
+      </c>
+      <c r="H8" s="18" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="I8" s="17" t="inlineStr">
+        <is>
+          <t>w.f</t>
+        </is>
+      </c>
+      <c r="J8" s="17" t="inlineStr">
+        <is>
+          <t>fry</t>
+        </is>
+      </c>
+      <c r="K8" s="17" t="inlineStr">
+        <is>
+          <t>KZ</t>
+        </is>
+      </c>
+      <c r="L8" s="17" t="inlineStr">
+        <is>
+          <t>2A 2ek_fry</t>
+        </is>
+      </c>
+      <c r="M8" s="18" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="N8" s="17" t="inlineStr">
+        <is>
+          <t>w.f</t>
+        </is>
+      </c>
+      <c r="O8" s="17" t="inlineStr">
+        <is>
+          <t>j2</t>
+        </is>
+      </c>
+      <c r="P8" s="17" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="Q8" s="17" t="inlineStr">
+        <is>
+          <t>1d 1wz</t>
+        </is>
+      </c>
+      <c r="R8" s="18" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="S8" s="17" t="inlineStr">
+        <is>
+          <t>w.f</t>
+        </is>
+      </c>
+      <c r="T8" s="17" t="inlineStr">
+        <is>
+          <t>j1</t>
+        </is>
+      </c>
+      <c r="U8" s="17" t="inlineStr">
+        <is>
           <t>MP</t>
         </is>
       </c>
-      <c r="G8" s="17" t="inlineStr">
-        <is>
-          <t>3S 3sport</t>
-        </is>
-      </c>
-      <c r="H8" s="18" t="inlineStr">
-        <is>
-          <t>st1</t>
-        </is>
-      </c>
-      <c r="I8" s="17" t="inlineStr">
+      <c r="V8" s="17" t="inlineStr">
+        <is>
+          <t>2B 2gas</t>
+        </is>
+      </c>
+      <c r="W8" s="18" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="X8" s="17" t="inlineStr">
         <is>
           <t>w.f</t>
         </is>
       </c>
-      <c r="J8" s="17" t="inlineStr">
-        <is>
-          <t>fry</t>
-        </is>
-      </c>
-      <c r="K8" s="17" t="inlineStr">
-        <is>
-          <t>KZ</t>
-        </is>
-      </c>
-      <c r="L8" s="17" t="inlineStr">
-        <is>
-          <t>2A 2ek_fry</t>
-        </is>
-      </c>
-      <c r="M8" s="18" t="inlineStr">
+      <c r="Y8" s="17" t="inlineStr">
+        <is>
+          <t>j1</t>
+        </is>
+      </c>
+      <c r="Z8" s="17" t="inlineStr">
+        <is>
+          <t>JB</t>
+        </is>
+      </c>
+      <c r="AA8" s="17" t="inlineStr">
+        <is>
+          <t>3d 3wz</t>
+        </is>
+      </c>
+      <c r="AB8" s="18" t="inlineStr">
         <is>
           <t>s2</t>
-        </is>
-      </c>
-      <c r="N8" s="17" t="inlineStr">
-        <is>
-          <t>w.f</t>
-        </is>
-      </c>
-      <c r="O8" s="17" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
-      <c r="P8" s="17" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="Q8" s="17" t="inlineStr">
-        <is>
-          <t>5A 5ek_log</t>
-        </is>
-      </c>
-      <c r="R8" s="18" t="inlineStr">
-        <is>
-          <t>s1</t>
-        </is>
-      </c>
-      <c r="S8" s="17" t="inlineStr">
-        <is>
-          <t>w.f</t>
-        </is>
-      </c>
-      <c r="T8" s="17" t="inlineStr">
-        <is>
-          <t>j1</t>
-        </is>
-      </c>
-      <c r="U8" s="17" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="V8" s="17" t="inlineStr">
-        <is>
-          <t>2B 2gas</t>
-        </is>
-      </c>
-      <c r="W8" s="18" t="inlineStr">
-        <is>
-          <t>s1</t>
-        </is>
-      </c>
-      <c r="X8" s="17" t="inlineStr">
-        <is>
-          <t>w.f</t>
-        </is>
-      </c>
-      <c r="Y8" s="17" t="inlineStr">
-        <is>
-          <t>fry</t>
-        </is>
-      </c>
-      <c r="Z8" s="17" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="AA8" s="17" t="inlineStr">
-        <is>
-          <t>4B 4gas_fry</t>
-        </is>
-      </c>
-      <c r="AB8" s="18" t="inlineStr">
-        <is>
-          <t>s1</t>
         </is>
       </c>
     </row>
@@ -46869,72 +46869,72 @@
       </c>
       <c r="O9" s="17" t="inlineStr">
         <is>
-          <t>j2</t>
+          <t>log</t>
         </is>
       </c>
       <c r="P9" s="17" t="inlineStr">
         <is>
-          <t>RT</t>
+          <t>MP</t>
         </is>
       </c>
       <c r="Q9" s="17" t="inlineStr">
         <is>
-          <t>1d 1wz</t>
+          <t>5A 5ek_log</t>
         </is>
       </c>
       <c r="R9" s="18" t="inlineStr">
         <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="S9" s="17" t="inlineStr">
+        <is>
+          <t>w.f</t>
+        </is>
+      </c>
+      <c r="T9" s="17" t="inlineStr">
+        <is>
+          <t>j1</t>
+        </is>
+      </c>
+      <c r="U9" s="17" t="inlineStr">
+        <is>
+          <t>KZ</t>
+        </is>
+      </c>
+      <c r="V9" s="17" t="inlineStr">
+        <is>
+          <t>3e 3wz</t>
+        </is>
+      </c>
+      <c r="W9" s="18" t="inlineStr">
+        <is>
           <t>s2</t>
         </is>
       </c>
-      <c r="S9" s="17" t="inlineStr">
+      <c r="X9" s="17" t="inlineStr">
         <is>
           <t>w.f</t>
         </is>
       </c>
-      <c r="T9" s="17" t="inlineStr">
-        <is>
-          <t>j1</t>
-        </is>
-      </c>
-      <c r="U9" s="17" t="inlineStr">
-        <is>
-          <t>KZ</t>
-        </is>
-      </c>
-      <c r="V9" s="17" t="inlineStr">
-        <is>
-          <t>3e 3wz</t>
-        </is>
-      </c>
-      <c r="W9" s="18" t="inlineStr">
-        <is>
-          <t>s2</t>
-        </is>
-      </c>
-      <c r="X9" s="17" t="inlineStr">
-        <is>
-          <t>w.f</t>
-        </is>
-      </c>
       <c r="Y9" s="17" t="inlineStr">
         <is>
-          <t>j1</t>
+          <t>fry</t>
         </is>
       </c>
       <c r="Z9" s="17" t="inlineStr">
         <is>
-          <t>JB</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="AA9" s="17" t="inlineStr">
         <is>
-          <t>3d 3wz</t>
+          <t>4B 4gas_fry</t>
         </is>
       </c>
       <c r="AB9" s="18" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>s1</t>
         </is>
       </c>
     </row>
@@ -46953,22 +46953,22 @@
       </c>
       <c r="E10" s="17" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F10" s="17" t="inlineStr">
         <is>
-          <t>RT</t>
+          <t>MP</t>
         </is>
       </c>
       <c r="G10" s="17" t="inlineStr">
         <is>
-          <t>5B 5gas_fry</t>
+          <t>3S 3sport</t>
         </is>
       </c>
       <c r="H10" s="18" t="inlineStr">
         <is>
-          <t>s3</t>
+          <t>st1</t>
         </is>
       </c>
       <c r="I10" s="17" t="inlineStr">
@@ -47027,22 +47027,22 @@
       </c>
       <c r="E11" s="17" t="inlineStr">
         <is>
-          <t>j1</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="F11" s="17" t="inlineStr">
         <is>
-          <t>KZ</t>
+          <t>RT</t>
         </is>
       </c>
       <c r="G11" s="17" t="inlineStr">
         <is>
-          <t>1d 1wz</t>
+          <t>5B 5gas_fry</t>
         </is>
       </c>
       <c r="H11" s="18" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>s3</t>
         </is>
       </c>
       <c r="I11" s="17" t="inlineStr"/>
@@ -47083,72 +47083,72 @@
       </c>
       <c r="E12" s="15" t="inlineStr">
         <is>
+          <t>j2</t>
+        </is>
+      </c>
+      <c r="F12" s="15" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="G12" s="15" t="inlineStr">
+        <is>
+          <t>1d 1wz</t>
+        </is>
+      </c>
+      <c r="H12" s="16" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="I12" s="15" t="inlineStr">
+        <is>
+          <t>w.f</t>
+        </is>
+      </c>
+      <c r="J12" s="15" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F12" s="15" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="G12" s="15" t="inlineStr">
-        <is>
-          <t>3S 3sport</t>
-        </is>
-      </c>
-      <c r="H12" s="16" t="inlineStr">
-        <is>
-          <t>st1</t>
-        </is>
-      </c>
-      <c r="I12" s="15" t="inlineStr">
+      <c r="K12" s="15" t="inlineStr">
+        <is>
+          <t>JB</t>
+        </is>
+      </c>
+      <c r="L12" s="15" t="inlineStr">
+        <is>
+          <t>3A 3ra_fry</t>
+        </is>
+      </c>
+      <c r="M12" s="16" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="N12" s="15" t="inlineStr">
         <is>
           <t>w.f</t>
         </is>
       </c>
-      <c r="J12" s="15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K12" s="15" t="inlineStr">
-        <is>
-          <t>JB</t>
-        </is>
-      </c>
-      <c r="L12" s="15" t="inlineStr">
-        <is>
-          <t>3A 3ra_fry</t>
-        </is>
-      </c>
-      <c r="M12" s="16" t="inlineStr">
-        <is>
-          <t>s1</t>
-        </is>
-      </c>
-      <c r="N12" s="15" t="inlineStr">
-        <is>
-          <t>w.f</t>
-        </is>
-      </c>
       <c r="O12" s="15" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>j2</t>
         </is>
       </c>
       <c r="P12" s="15" t="inlineStr">
         <is>
-          <t>JB</t>
+          <t>RT</t>
         </is>
       </c>
       <c r="Q12" s="15" t="inlineStr">
         <is>
-          <t>4B 4gas_fry</t>
+          <t>1d 1wz</t>
         </is>
       </c>
       <c r="R12" s="16" t="inlineStr">
         <is>
-          <t>s1</t>
+          <t>s2</t>
         </is>
       </c>
       <c r="S12" s="15" t="inlineStr">
@@ -47267,22 +47267,22 @@
       </c>
       <c r="O13" s="15" t="inlineStr">
         <is>
-          <t>j2</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="P13" s="15" t="inlineStr">
         <is>
-          <t>RT</t>
+          <t>JB</t>
         </is>
       </c>
       <c r="Q13" s="15" t="inlineStr">
         <is>
-          <t>1d 1wz</t>
+          <t>4B 4gas_fry</t>
         </is>
       </c>
       <c r="R13" s="16" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>s1</t>
         </is>
       </c>
       <c r="S13" s="15" t="inlineStr">
@@ -47351,22 +47351,22 @@
       </c>
       <c r="E14" s="15" t="inlineStr">
         <is>
-          <t>j2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F14" s="15" t="inlineStr">
         <is>
-          <t>RT</t>
+          <t>MP</t>
         </is>
       </c>
       <c r="G14" s="15" t="inlineStr">
         <is>
-          <t>1d 1wz</t>
+          <t>3S 3sport</t>
         </is>
       </c>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>st1</t>
         </is>
       </c>
       <c r="I14" s="15" t="inlineStr"/>
@@ -47457,72 +47457,72 @@
       </c>
       <c r="O15" s="17" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>j1</t>
         </is>
       </c>
       <c r="P15" s="17" t="inlineStr">
         <is>
-          <t>JB</t>
+          <t>KZ</t>
         </is>
       </c>
       <c r="Q15" s="17" t="inlineStr">
         <is>
-          <t>4A 4ra_log</t>
+          <t>1d 1wz</t>
         </is>
       </c>
       <c r="R15" s="18" t="inlineStr">
         <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="S15" s="17" t="inlineStr">
+        <is>
+          <t>w.f</t>
+        </is>
+      </c>
+      <c r="T15" s="17" t="inlineStr">
+        <is>
+          <t>gas</t>
+        </is>
+      </c>
+      <c r="U15" s="17" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="V15" s="17" t="inlineStr">
+        <is>
+          <t>1B 1gas_log</t>
+        </is>
+      </c>
+      <c r="W15" s="18" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="X15" s="17" t="inlineStr">
+        <is>
+          <t>w.f</t>
+        </is>
+      </c>
+      <c r="Y15" s="17" t="inlineStr">
+        <is>
+          <t>j1</t>
+        </is>
+      </c>
+      <c r="Z15" s="17" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="AA15" s="17" t="inlineStr">
+        <is>
+          <t>2d 2wz</t>
+        </is>
+      </c>
+      <c r="AB15" s="18" t="inlineStr">
+        <is>
           <t>s1</t>
-        </is>
-      </c>
-      <c r="S15" s="17" t="inlineStr">
-        <is>
-          <t>w.f</t>
-        </is>
-      </c>
-      <c r="T15" s="17" t="inlineStr">
-        <is>
-          <t>gas</t>
-        </is>
-      </c>
-      <c r="U15" s="17" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="V15" s="17" t="inlineStr">
-        <is>
-          <t>1B 1gas_log</t>
-        </is>
-      </c>
-      <c r="W15" s="18" t="inlineStr">
-        <is>
-          <t>s2</t>
-        </is>
-      </c>
-      <c r="X15" s="17" t="inlineStr">
-        <is>
-          <t>w.f</t>
-        </is>
-      </c>
-      <c r="Y15" s="17" t="inlineStr">
-        <is>
-          <t>j1</t>
-        </is>
-      </c>
-      <c r="Z15" s="17" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="AA15" s="17" t="inlineStr">
-        <is>
-          <t>3B 3gas</t>
-        </is>
-      </c>
-      <c r="AB15" s="18" t="inlineStr">
-        <is>
-          <t>s3</t>
         </is>
       </c>
     </row>
@@ -47571,72 +47571,72 @@
       </c>
       <c r="O16" s="17" t="inlineStr">
         <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="P16" s="17" t="inlineStr">
+        <is>
+          <t>JB</t>
+        </is>
+      </c>
+      <c r="Q16" s="17" t="inlineStr">
+        <is>
+          <t>4A 4ra_log</t>
+        </is>
+      </c>
+      <c r="R16" s="18" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="S16" s="17" t="inlineStr">
+        <is>
+          <t>w.f</t>
+        </is>
+      </c>
+      <c r="T16" s="17" t="inlineStr">
+        <is>
           <t>j1</t>
         </is>
       </c>
-      <c r="P16" s="17" t="inlineStr">
-        <is>
-          <t>KZ</t>
-        </is>
-      </c>
-      <c r="Q16" s="17" t="inlineStr">
-        <is>
-          <t>1d 1wz</t>
-        </is>
-      </c>
-      <c r="R16" s="18" t="inlineStr">
-        <is>
-          <t>s2</t>
-        </is>
-      </c>
-      <c r="S16" s="17" t="inlineStr">
+      <c r="U16" s="17" t="inlineStr">
+        <is>
+          <t>JB</t>
+        </is>
+      </c>
+      <c r="V16" s="17" t="inlineStr">
+        <is>
+          <t>3d 3wz</t>
+        </is>
+      </c>
+      <c r="W16" s="18" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="X16" s="17" t="inlineStr">
         <is>
           <t>w.f</t>
         </is>
       </c>
-      <c r="T16" s="17" t="inlineStr">
+      <c r="Y16" s="17" t="inlineStr">
         <is>
           <t>j1</t>
         </is>
       </c>
-      <c r="U16" s="17" t="inlineStr">
-        <is>
-          <t>JB</t>
-        </is>
-      </c>
-      <c r="V16" s="17" t="inlineStr">
-        <is>
-          <t>3d 3wz</t>
-        </is>
-      </c>
-      <c r="W16" s="18" t="inlineStr">
-        <is>
-          <t>s1</t>
-        </is>
-      </c>
-      <c r="X16" s="17" t="inlineStr">
-        <is>
-          <t>w.f</t>
-        </is>
-      </c>
-      <c r="Y16" s="17" t="inlineStr">
-        <is>
-          <t>gas</t>
-        </is>
-      </c>
       <c r="Z16" s="17" t="inlineStr">
         <is>
-          <t>JB</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="AA16" s="17" t="inlineStr">
         <is>
-          <t>4B 4gas_fry</t>
+          <t>3B 3gas</t>
         </is>
       </c>
       <c r="AB16" s="18" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>s3</t>
         </is>
       </c>
     </row>
@@ -47675,22 +47675,22 @@
       </c>
       <c r="Y17" s="17" t="inlineStr">
         <is>
-          <t>j1</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="Z17" s="17" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>JB</t>
         </is>
       </c>
       <c r="AA17" s="17" t="inlineStr">
         <is>
-          <t>2d 2wz</t>
+          <t>4B 4gas_fry</t>
         </is>
       </c>
       <c r="AB17" s="18" t="inlineStr">
         <is>
-          <t>s1</t>
+          <t>s2</t>
         </is>
       </c>
     </row>
@@ -47711,122 +47711,122 @@
       </c>
       <c r="E18" s="15" t="inlineStr">
         <is>
-          <t>fry</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F18" s="15" t="inlineStr">
         <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="G18" s="15" t="inlineStr">
+        <is>
+          <t>2L 2log</t>
+        </is>
+      </c>
+      <c r="H18" s="16" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="I18" s="15" t="inlineStr">
+        <is>
+          <t>w.f</t>
+        </is>
+      </c>
+      <c r="J18" s="15" t="inlineStr">
+        <is>
+          <t>ra</t>
+        </is>
+      </c>
+      <c r="K18" s="15" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="L18" s="15" t="inlineStr">
+        <is>
+          <t>4A 4ra_log</t>
+        </is>
+      </c>
+      <c r="M18" s="16" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="N18" s="15" t="inlineStr">
+        <is>
+          <t>w.f</t>
+        </is>
+      </c>
+      <c r="O18" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P18" s="15" t="inlineStr">
+        <is>
           <t>RB</t>
         </is>
       </c>
-      <c r="G18" s="15" t="inlineStr">
-        <is>
-          <t>5B 5gas_fry</t>
-        </is>
-      </c>
-      <c r="H18" s="16" t="inlineStr">
+      <c r="Q18" s="15" t="inlineStr">
+        <is>
+          <t>2C 2hot</t>
+        </is>
+      </c>
+      <c r="R18" s="16" t="inlineStr">
         <is>
           <t>s3</t>
         </is>
       </c>
-      <c r="I18" s="15" t="inlineStr">
+      <c r="S18" s="15" t="inlineStr">
         <is>
           <t>w.f</t>
         </is>
       </c>
-      <c r="J18" s="15" t="inlineStr">
-        <is>
-          <t>ra</t>
-        </is>
-      </c>
-      <c r="K18" s="15" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="L18" s="15" t="inlineStr">
-        <is>
-          <t>4A 4ra_log</t>
-        </is>
-      </c>
-      <c r="M18" s="16" t="inlineStr">
+      <c r="T18" s="15" t="inlineStr">
+        <is>
+          <t>j2</t>
+        </is>
+      </c>
+      <c r="U18" s="15" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="V18" s="15" t="inlineStr">
+        <is>
+          <t>2d 2wz</t>
+        </is>
+      </c>
+      <c r="W18" s="16" t="inlineStr">
         <is>
           <t>s2</t>
         </is>
       </c>
-      <c r="N18" s="15" t="inlineStr">
+      <c r="X18" s="15" t="inlineStr">
         <is>
           <t>w.f</t>
         </is>
       </c>
-      <c r="O18" s="15" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
-      <c r="P18" s="15" t="inlineStr">
-        <is>
-          <t>JB</t>
-        </is>
-      </c>
-      <c r="Q18" s="15" t="inlineStr">
-        <is>
-          <t>4A 4ra_log</t>
-        </is>
-      </c>
-      <c r="R18" s="16" t="inlineStr">
-        <is>
-          <t>s1</t>
-        </is>
-      </c>
-      <c r="S18" s="15" t="inlineStr">
-        <is>
-          <t>w.f</t>
-        </is>
-      </c>
-      <c r="T18" s="15" t="inlineStr">
-        <is>
-          <t>j1</t>
-        </is>
-      </c>
-      <c r="U18" s="15" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="V18" s="15" t="inlineStr">
-        <is>
-          <t>3B 3gas</t>
-        </is>
-      </c>
-      <c r="W18" s="16" t="inlineStr">
-        <is>
-          <t>s1</t>
-        </is>
-      </c>
-      <c r="X18" s="15" t="inlineStr">
-        <is>
-          <t>w.f</t>
-        </is>
-      </c>
       <c r="Y18" s="15" t="inlineStr">
         <is>
-          <t>ra</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Z18" s="15" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="AA18" s="15" t="inlineStr">
         <is>
-          <t>4A 4ra_log</t>
+          <t>3C 3hot</t>
         </is>
       </c>
       <c r="AB18" s="16" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>st2</t>
         </is>
       </c>
     </row>
@@ -47845,122 +47845,122 @@
       </c>
       <c r="E19" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>log</t>
         </is>
       </c>
       <c r="F19" s="15" t="inlineStr">
         <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="G19" s="15" t="inlineStr">
+        <is>
+          <t>3L 3log</t>
+        </is>
+      </c>
+      <c r="H19" s="16" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="I19" s="15" t="inlineStr">
+        <is>
+          <t>w.f</t>
+        </is>
+      </c>
+      <c r="J19" s="15" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="K19" s="15" t="inlineStr">
+        <is>
           <t>MP</t>
         </is>
       </c>
-      <c r="G19" s="15" t="inlineStr">
-        <is>
-          <t>2L 2log</t>
-        </is>
-      </c>
-      <c r="H19" s="16" t="inlineStr">
+      <c r="L19" s="15" t="inlineStr">
+        <is>
+          <t>5A 5ek_log</t>
+        </is>
+      </c>
+      <c r="M19" s="16" t="inlineStr">
         <is>
           <t>s1</t>
         </is>
       </c>
-      <c r="I19" s="15" t="inlineStr">
+      <c r="N19" s="15" t="inlineStr">
         <is>
           <t>w.f</t>
         </is>
       </c>
-      <c r="J19" s="15" t="inlineStr">
+      <c r="O19" s="15" t="inlineStr">
         <is>
           <t>log</t>
         </is>
       </c>
-      <c r="K19" s="15" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="L19" s="15" t="inlineStr">
-        <is>
-          <t>5A 5ek_log</t>
-        </is>
-      </c>
-      <c r="M19" s="16" t="inlineStr">
+      <c r="P19" s="15" t="inlineStr">
+        <is>
+          <t>JB</t>
+        </is>
+      </c>
+      <c r="Q19" s="15" t="inlineStr">
+        <is>
+          <t>4A 4ra_log</t>
+        </is>
+      </c>
+      <c r="R19" s="16" t="inlineStr">
         <is>
           <t>s1</t>
         </is>
       </c>
-      <c r="N19" s="15" t="inlineStr">
+      <c r="S19" s="15" t="inlineStr">
         <is>
           <t>w.f</t>
         </is>
       </c>
-      <c r="O19" s="15" t="inlineStr">
-        <is>
-          <t>gas</t>
-        </is>
-      </c>
-      <c r="P19" s="15" t="inlineStr">
-        <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="Q19" s="15" t="inlineStr">
-        <is>
-          <t>5B 5gas_fry</t>
-        </is>
-      </c>
-      <c r="R19" s="16" t="inlineStr">
+      <c r="T19" s="15" t="inlineStr">
+        <is>
+          <t>j1</t>
+        </is>
+      </c>
+      <c r="U19" s="15" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="V19" s="15" t="inlineStr">
+        <is>
+          <t>3B 3gas</t>
+        </is>
+      </c>
+      <c r="W19" s="16" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="X19" s="15" t="inlineStr">
+        <is>
+          <t>w.f</t>
+        </is>
+      </c>
+      <c r="Y19" s="15" t="inlineStr">
+        <is>
+          <t>ra</t>
+        </is>
+      </c>
+      <c r="Z19" s="15" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="AA19" s="15" t="inlineStr">
+        <is>
+          <t>4A 4ra_log</t>
+        </is>
+      </c>
+      <c r="AB19" s="16" t="inlineStr">
         <is>
           <t>s2</t>
-        </is>
-      </c>
-      <c r="S19" s="15" t="inlineStr">
-        <is>
-          <t>w.f</t>
-        </is>
-      </c>
-      <c r="T19" s="15" t="inlineStr">
-        <is>
-          <t>j2</t>
-        </is>
-      </c>
-      <c r="U19" s="15" t="inlineStr">
-        <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="V19" s="15" t="inlineStr">
-        <is>
-          <t>2d 2wz</t>
-        </is>
-      </c>
-      <c r="W19" s="16" t="inlineStr">
-        <is>
-          <t>s2</t>
-        </is>
-      </c>
-      <c r="X19" s="15" t="inlineStr">
-        <is>
-          <t>w.f</t>
-        </is>
-      </c>
-      <c r="Y19" s="15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z19" s="15" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="AA19" s="15" t="inlineStr">
-        <is>
-          <t>3C 3hot</t>
-        </is>
-      </c>
-      <c r="AB19" s="16" t="inlineStr">
-        <is>
-          <t>st2</t>
         </is>
       </c>
     </row>
@@ -47979,22 +47979,22 @@
       </c>
       <c r="E20" s="15" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>fry</t>
         </is>
       </c>
       <c r="F20" s="15" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="G20" s="15" t="inlineStr">
         <is>
-          <t>3L 3log</t>
+          <t>5B 5gas_fry</t>
         </is>
       </c>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>s3</t>
         </is>
       </c>
       <c r="I20" s="15" t="inlineStr"/>
@@ -48009,22 +48009,22 @@
       </c>
       <c r="O20" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="P20" s="15" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>RT</t>
         </is>
       </c>
       <c r="Q20" s="15" t="inlineStr">
         <is>
-          <t>2C 2hot</t>
+          <t>5B 5gas_fry</t>
         </is>
       </c>
       <c r="R20" s="16" t="inlineStr">
         <is>
-          <t>s3</t>
+          <t>s2</t>
         </is>
       </c>
       <c r="S20" s="15" t="inlineStr">
@@ -48100,97 +48100,97 @@
       </c>
       <c r="J21" s="17" t="inlineStr">
         <is>
-          <t>ra</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K21" s="17" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="L21" s="17" t="inlineStr">
         <is>
-          <t>4A 4ra_log</t>
+          <t>3C 3hot</t>
         </is>
       </c>
       <c r="M21" s="18" t="inlineStr">
         <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="N21" s="17" t="inlineStr">
+        <is>
+          <t>w.f</t>
+        </is>
+      </c>
+      <c r="O21" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P21" s="17" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="Q21" s="17" t="inlineStr">
+        <is>
+          <t>2C 2hot</t>
+        </is>
+      </c>
+      <c r="R21" s="18" t="inlineStr">
+        <is>
+          <t>s3</t>
+        </is>
+      </c>
+      <c r="S21" s="17" t="inlineStr">
+        <is>
+          <t>w.f</t>
+        </is>
+      </c>
+      <c r="T21" s="17" t="inlineStr">
+        <is>
+          <t>ek</t>
+        </is>
+      </c>
+      <c r="U21" s="17" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="V21" s="17" t="inlineStr">
+        <is>
+          <t>2A 2ek_fry</t>
+        </is>
+      </c>
+      <c r="W21" s="18" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="X21" s="17" t="inlineStr">
+        <is>
+          <t>w.f</t>
+        </is>
+      </c>
+      <c r="Y21" s="17" t="inlineStr">
+        <is>
+          <t>j2</t>
+        </is>
+      </c>
+      <c r="Z21" s="17" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="AA21" s="17" t="inlineStr">
+        <is>
+          <t>2d 2wz</t>
+        </is>
+      </c>
+      <c r="AB21" s="18" t="inlineStr">
+        <is>
           <t>s2</t>
-        </is>
-      </c>
-      <c r="N21" s="17" t="inlineStr">
-        <is>
-          <t>w.f</t>
-        </is>
-      </c>
-      <c r="O21" s="17" t="inlineStr">
-        <is>
-          <t>gas</t>
-        </is>
-      </c>
-      <c r="P21" s="17" t="inlineStr">
-        <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="Q21" s="17" t="inlineStr">
-        <is>
-          <t>5B 5gas_fry</t>
-        </is>
-      </c>
-      <c r="R21" s="18" t="inlineStr">
-        <is>
-          <t>s2</t>
-        </is>
-      </c>
-      <c r="S21" s="17" t="inlineStr">
-        <is>
-          <t>w.f</t>
-        </is>
-      </c>
-      <c r="T21" s="17" t="inlineStr">
-        <is>
-          <t>ek</t>
-        </is>
-      </c>
-      <c r="U21" s="17" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="V21" s="17" t="inlineStr">
-        <is>
-          <t>2A 2ek_fry</t>
-        </is>
-      </c>
-      <c r="W21" s="18" t="inlineStr">
-        <is>
-          <t>s1</t>
-        </is>
-      </c>
-      <c r="X21" s="17" t="inlineStr">
-        <is>
-          <t>w.f</t>
-        </is>
-      </c>
-      <c r="Y21" s="17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z21" s="17" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="AA21" s="17" t="inlineStr">
-        <is>
-          <t>3C 3hot</t>
-        </is>
-      </c>
-      <c r="AB21" s="18" t="inlineStr">
-        <is>
-          <t>st2</t>
         </is>
       </c>
     </row>
@@ -48209,122 +48209,122 @@
       </c>
       <c r="E22" s="17" t="inlineStr">
         <is>
-          <t>fry</t>
+          <t>log</t>
         </is>
       </c>
       <c r="F22" s="17" t="inlineStr">
         <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="G22" s="17" t="inlineStr">
+        <is>
+          <t>3L 3log</t>
+        </is>
+      </c>
+      <c r="H22" s="18" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="I22" s="17" t="inlineStr">
+        <is>
+          <t>w.f</t>
+        </is>
+      </c>
+      <c r="J22" s="17" t="inlineStr">
+        <is>
+          <t>ra</t>
+        </is>
+      </c>
+      <c r="K22" s="17" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="L22" s="17" t="inlineStr">
+        <is>
+          <t>4A 4ra_log</t>
+        </is>
+      </c>
+      <c r="M22" s="18" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="N22" s="17" t="inlineStr">
+        <is>
+          <t>w.f</t>
+        </is>
+      </c>
+      <c r="O22" s="17" t="inlineStr">
+        <is>
+          <t>gas</t>
+        </is>
+      </c>
+      <c r="P22" s="17" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="Q22" s="17" t="inlineStr">
+        <is>
+          <t>5B 5gas_fry</t>
+        </is>
+      </c>
+      <c r="R22" s="18" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="S22" s="17" t="inlineStr">
+        <is>
+          <t>w.f</t>
+        </is>
+      </c>
+      <c r="T22" s="17" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="U22" s="17" t="inlineStr">
+        <is>
+          <t>JB</t>
+        </is>
+      </c>
+      <c r="V22" s="17" t="inlineStr">
+        <is>
+          <t>4A 4ra_log</t>
+        </is>
+      </c>
+      <c r="W22" s="18" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="X22" s="17" t="inlineStr">
+        <is>
+          <t>w.f</t>
+        </is>
+      </c>
+      <c r="Y22" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z22" s="17" t="inlineStr">
+        <is>
           <t>RB</t>
         </is>
       </c>
-      <c r="G22" s="17" t="inlineStr">
-        <is>
-          <t>5B 5gas_fry</t>
-        </is>
-      </c>
-      <c r="H22" s="18" t="inlineStr">
-        <is>
-          <t>s1</t>
-        </is>
-      </c>
-      <c r="I22" s="17" t="inlineStr">
-        <is>
-          <t>w.f</t>
-        </is>
-      </c>
-      <c r="J22" s="17" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
-      <c r="K22" s="17" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="L22" s="17" t="inlineStr">
-        <is>
-          <t>5A 5ek_log</t>
-        </is>
-      </c>
-      <c r="M22" s="18" t="inlineStr">
-        <is>
-          <t>s3</t>
-        </is>
-      </c>
-      <c r="N22" s="17" t="inlineStr">
-        <is>
-          <t>w.f</t>
-        </is>
-      </c>
-      <c r="O22" s="17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P22" s="17" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="Q22" s="17" t="inlineStr">
-        <is>
-          <t>2C 2hot</t>
-        </is>
-      </c>
-      <c r="R22" s="18" t="inlineStr">
-        <is>
-          <t>s3</t>
-        </is>
-      </c>
-      <c r="S22" s="17" t="inlineStr">
-        <is>
-          <t>w.f</t>
-        </is>
-      </c>
-      <c r="T22" s="17" t="inlineStr">
-        <is>
-          <t>log</t>
-        </is>
-      </c>
-      <c r="U22" s="17" t="inlineStr">
-        <is>
-          <t>JB</t>
-        </is>
-      </c>
-      <c r="V22" s="17" t="inlineStr">
-        <is>
-          <t>4A 4ra_log</t>
-        </is>
-      </c>
-      <c r="W22" s="18" t="inlineStr">
-        <is>
-          <t>s2</t>
-        </is>
-      </c>
-      <c r="X22" s="17" t="inlineStr">
-        <is>
-          <t>w.f</t>
-        </is>
-      </c>
-      <c r="Y22" s="17" t="inlineStr">
-        <is>
-          <t>j2</t>
-        </is>
-      </c>
-      <c r="Z22" s="17" t="inlineStr">
-        <is>
-          <t>RT</t>
-        </is>
-      </c>
       <c r="AA22" s="17" t="inlineStr">
         <is>
-          <t>2d 2wz</t>
+          <t>3C 3hot</t>
         </is>
       </c>
       <c r="AB22" s="18" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>st2</t>
         </is>
       </c>
     </row>
@@ -48343,47 +48343,47 @@
       </c>
       <c r="E23" s="17" t="inlineStr">
         <is>
+          <t>fry</t>
+        </is>
+      </c>
+      <c r="F23" s="17" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="G23" s="17" t="inlineStr">
+        <is>
+          <t>5B 5gas_fry</t>
+        </is>
+      </c>
+      <c r="H23" s="18" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="I23" s="17" t="inlineStr">
+        <is>
+          <t>w.f</t>
+        </is>
+      </c>
+      <c r="J23" s="17" t="inlineStr">
+        <is>
           <t>log</t>
         </is>
       </c>
-      <c r="F23" s="17" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="G23" s="17" t="inlineStr">
-        <is>
-          <t>3L 3log</t>
-        </is>
-      </c>
-      <c r="H23" s="18" t="inlineStr">
-        <is>
-          <t>s2</t>
-        </is>
-      </c>
-      <c r="I23" s="17" t="inlineStr">
-        <is>
-          <t>w.f</t>
-        </is>
-      </c>
-      <c r="J23" s="17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="K23" s="17" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>MP</t>
         </is>
       </c>
       <c r="L23" s="17" t="inlineStr">
         <is>
-          <t>3C 3hot</t>
+          <t>5A 5ek_log</t>
         </is>
       </c>
       <c r="M23" s="18" t="inlineStr">
         <is>
-          <t>s1</t>
+          <t>s3</t>
         </is>
       </c>
       <c r="N23" s="17" t="inlineStr"/>
@@ -48513,97 +48513,97 @@
       </c>
       <c r="E25" s="15" t="inlineStr">
         <is>
-          <t>ek</t>
+          <t>log</t>
         </is>
       </c>
       <c r="F25" s="15" t="inlineStr">
         <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="G25" s="15" t="inlineStr">
+        <is>
+          <t>1B 1gas_log</t>
+        </is>
+      </c>
+      <c r="H25" s="16" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="I25" s="15" t="inlineStr">
+        <is>
+          <t>w.f</t>
+        </is>
+      </c>
+      <c r="J25" s="15" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="K25" s="15" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="L25" s="15" t="inlineStr">
+        <is>
+          <t>3L 3log</t>
+        </is>
+      </c>
+      <c r="M25" s="16" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="N25" s="15" t="inlineStr">
+        <is>
+          <t>w.f</t>
+        </is>
+      </c>
+      <c r="O25" s="15" t="inlineStr">
+        <is>
+          <t>gas</t>
+        </is>
+      </c>
+      <c r="P25" s="15" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="Q25" s="15" t="inlineStr">
+        <is>
+          <t>1B 1gas_log</t>
+        </is>
+      </c>
+      <c r="R25" s="16" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="S25" s="15" t="inlineStr">
+        <is>
+          <t>w.f</t>
+        </is>
+      </c>
+      <c r="T25" s="15" t="inlineStr">
+        <is>
+          <t>j2</t>
+        </is>
+      </c>
+      <c r="U25" s="15" t="inlineStr">
+        <is>
           <t>RB</t>
         </is>
       </c>
-      <c r="G25" s="15" t="inlineStr">
-        <is>
-          <t>2A 2ek_fry</t>
-        </is>
-      </c>
-      <c r="H25" s="16" t="inlineStr">
+      <c r="V25" s="15" t="inlineStr">
+        <is>
+          <t>3B 3gas</t>
+        </is>
+      </c>
+      <c r="W25" s="16" t="inlineStr">
         <is>
           <t>s1</t>
-        </is>
-      </c>
-      <c r="I25" s="15" t="inlineStr">
-        <is>
-          <t>w.f</t>
-        </is>
-      </c>
-      <c r="J25" s="15" t="inlineStr">
-        <is>
-          <t>fry</t>
-        </is>
-      </c>
-      <c r="K25" s="15" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="L25" s="15" t="inlineStr">
-        <is>
-          <t>4B 4gas_fry</t>
-        </is>
-      </c>
-      <c r="M25" s="16" t="inlineStr">
-        <is>
-          <t>s1</t>
-        </is>
-      </c>
-      <c r="N25" s="15" t="inlineStr">
-        <is>
-          <t>w.f</t>
-        </is>
-      </c>
-      <c r="O25" s="15" t="inlineStr">
-        <is>
-          <t>gas</t>
-        </is>
-      </c>
-      <c r="P25" s="15" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="Q25" s="15" t="inlineStr">
-        <is>
-          <t>1B 1gas_log</t>
-        </is>
-      </c>
-      <c r="R25" s="16" t="inlineStr">
-        <is>
-          <t>s2</t>
-        </is>
-      </c>
-      <c r="S25" s="15" t="inlineStr">
-        <is>
-          <t>w.f</t>
-        </is>
-      </c>
-      <c r="T25" s="15" t="inlineStr">
-        <is>
-          <t>ek</t>
-        </is>
-      </c>
-      <c r="U25" s="15" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="V25" s="15" t="inlineStr">
-        <is>
-          <t>5A 5ek_log</t>
-        </is>
-      </c>
-      <c r="W25" s="16" t="inlineStr">
-        <is>
-          <t>s3</t>
         </is>
       </c>
       <c r="X25" s="15" t="inlineStr">
@@ -48647,22 +48647,22 @@
       </c>
       <c r="E26" s="15" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>ek</t>
         </is>
       </c>
       <c r="F26" s="15" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="G26" s="15" t="inlineStr">
         <is>
-          <t>1B 1gas_log</t>
+          <t>2A 2ek_fry</t>
         </is>
       </c>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>s1</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
@@ -48672,22 +48672,22 @@
       </c>
       <c r="J26" s="15" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>fry</t>
         </is>
       </c>
       <c r="K26" s="15" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="L26" s="15" t="inlineStr">
         <is>
-          <t>3L 3log</t>
+          <t>4B 4gas_fry</t>
         </is>
       </c>
       <c r="M26" s="16" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>s1</t>
         </is>
       </c>
       <c r="N26" s="15" t="inlineStr"/>
@@ -48707,17 +48707,17 @@
       </c>
       <c r="U26" s="15" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>RT</t>
         </is>
       </c>
       <c r="V26" s="15" t="inlineStr">
         <is>
-          <t>3B 3gas</t>
+          <t>3e 3wz</t>
         </is>
       </c>
       <c r="W26" s="16" t="inlineStr">
         <is>
-          <t>s1</t>
+          <t>s2</t>
         </is>
       </c>
       <c r="X26" s="15" t="inlineStr">
@@ -48776,22 +48776,22 @@
       </c>
       <c r="T27" s="15" t="inlineStr">
         <is>
-          <t>j2</t>
+          <t>ek</t>
         </is>
       </c>
       <c r="U27" s="15" t="inlineStr">
         <is>
-          <t>RT</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="V27" s="15" t="inlineStr">
         <is>
-          <t>3e 3wz</t>
+          <t>5A 5ek_log</t>
         </is>
       </c>
       <c r="W27" s="16" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>s3</t>
         </is>
       </c>
       <c r="X27" s="15" t="inlineStr"/>
@@ -48817,22 +48817,22 @@
       </c>
       <c r="E28" s="17" t="inlineStr">
         <is>
-          <t>ek</t>
+          <t>log</t>
         </is>
       </c>
       <c r="F28" s="17" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="G28" s="17" t="inlineStr">
         <is>
-          <t>2A 2ek_fry</t>
+          <t>1B 1gas_log</t>
         </is>
       </c>
       <c r="H28" s="18" t="inlineStr">
         <is>
-          <t>s1</t>
+          <t>s2</t>
         </is>
       </c>
       <c r="I28" s="17" t="inlineStr">
@@ -48951,22 +48951,22 @@
       </c>
       <c r="E29" s="17" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>ek</t>
         </is>
       </c>
       <c r="F29" s="17" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="G29" s="17" t="inlineStr">
         <is>
-          <t>1B 1gas_log</t>
+          <t>2A 2ek_fry</t>
         </is>
       </c>
       <c r="H29" s="18" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>s1</t>
         </is>
       </c>
       <c r="I29" s="17" t="inlineStr"/>
@@ -51237,21 +51237,21 @@
       </c>
       <c r="T9" s="15" t="inlineStr">
         <is>
-          <t>j2</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="U9" s="15" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>ZM</t>
         </is>
       </c>
       <c r="V9" s="15" t="inlineStr">
         <is>
-          <t>3B 3gas</t>
+          <t>2C 2hot</t>
         </is>
       </c>
       <c r="W9" s="16" t="n">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="X9" s="15" t="inlineStr"/>
       <c r="Y9" s="15" t="inlineStr"/>
@@ -51289,21 +51289,21 @@
       </c>
       <c r="T10" s="15" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>j2</t>
         </is>
       </c>
       <c r="U10" s="15" t="inlineStr">
         <is>
-          <t>ZM</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="V10" s="15" t="inlineStr">
         <is>
-          <t>2C 2hot</t>
+          <t>3B 3gas</t>
         </is>
       </c>
       <c r="W10" s="16" t="n">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="X10" s="15" t="inlineStr"/>
       <c r="Y10" s="15" t="inlineStr"/>
@@ -51384,16 +51384,16 @@
       </c>
       <c r="U11" s="17" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>ZM</t>
         </is>
       </c>
       <c r="V11" s="17" t="inlineStr">
         <is>
-          <t>3A 3ra_fry</t>
+          <t>2L 2log</t>
         </is>
       </c>
       <c r="W11" s="18" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X11" s="17" t="inlineStr">
         <is>
@@ -51407,16 +51407,16 @@
       </c>
       <c r="Z11" s="17" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>ZM</t>
         </is>
       </c>
       <c r="AA11" s="17" t="inlineStr">
         <is>
-          <t>3C 3hot</t>
+          <t>2L 2log</t>
         </is>
       </c>
       <c r="AB11" s="18" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" ht="14.3" customHeight="1">
@@ -51454,16 +51454,16 @@
       </c>
       <c r="U12" s="17" t="inlineStr">
         <is>
-          <t>ZM</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="V12" s="17" t="inlineStr">
         <is>
-          <t>2L 2log</t>
+          <t>3A 3ra_fry</t>
         </is>
       </c>
       <c r="W12" s="18" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X12" s="17" t="inlineStr">
         <is>
@@ -51477,16 +51477,16 @@
       </c>
       <c r="Z12" s="17" t="inlineStr">
         <is>
-          <t>ZM</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="AA12" s="17" t="inlineStr">
         <is>
-          <t>2L 2log</t>
+          <t>3C 3hot</t>
         </is>
       </c>
       <c r="AB12" s="18" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" ht="14.3" customHeight="1">
@@ -53363,16 +53363,16 @@
       </c>
       <c r="F11" s="17" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="G11" s="17" t="inlineStr">
         <is>
-          <t>2C 2hot</t>
+          <t>1d 1wz</t>
         </is>
       </c>
       <c r="H11" s="18" t="n">
-        <v>203</v>
+        <v>1</v>
       </c>
       <c r="I11" s="17" t="inlineStr"/>
       <c r="J11" s="17" t="inlineStr"/>
@@ -53415,16 +53415,16 @@
       </c>
       <c r="F12" s="17" t="inlineStr">
         <is>
-          <t>PI</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="G12" s="17" t="inlineStr">
         <is>
-          <t>1d 1wz</t>
+          <t>2C 2hot</t>
         </is>
       </c>
       <c r="H12" s="18" t="n">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="I12" s="17" t="inlineStr"/>
       <c r="J12" s="17" t="inlineStr"/>
@@ -53541,16 +53541,16 @@
       </c>
       <c r="F14" s="17" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="G14" s="17" t="inlineStr">
         <is>
-          <t>4B 4gas_fry</t>
+          <t>3L 3log</t>
         </is>
       </c>
       <c r="H14" s="18" t="n">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="I14" s="17" t="inlineStr">
         <is>
@@ -53629,16 +53629,16 @@
       </c>
       <c r="F15" s="19" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="G15" s="19" t="inlineStr">
         <is>
-          <t>3L 3log</t>
+          <t>4B 4gas_fry</t>
         </is>
       </c>
       <c r="H15" s="20" t="n">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="I15" s="19" t="inlineStr"/>
       <c r="J15" s="19" t="inlineStr"/>
